--- a/doc/PJ管理.xlsx
+++ b/doc/PJ管理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E919510-F97D-417E-B13A-E991F87D3828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3118FA-AF08-4F22-9472-A992C9D3DF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="3" xr2:uid="{18759526-B486-4F50-90B4-3DA4ED19388F}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="74">
   <si>
     <t>服装管理アプリ作成プロジェクト</t>
     <rPh sb="0" eb="2">
@@ -1141,7 +1141,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1359,7 +1359,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1684,7 +1684,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5</c:v>
@@ -1696,7 +1696,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4080,7 +4080,7 @@
       <pane xSplit="12" ySplit="4" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L42" sqref="L42"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6000,7 +6000,7 @@
         <v>56</v>
       </c>
       <c r="J16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K16" s="23">
         <v>45090</v>
@@ -6734,6 +6734,9 @@
       <c r="I21" t="s">
         <v>65</v>
       </c>
+      <c r="J21" t="s">
+        <v>36</v>
+      </c>
       <c r="K21" s="23">
         <v>45091</v>
       </c>
@@ -12119,6 +12122,9 @@
       <c r="H59" t="s">
         <v>6</v>
       </c>
+      <c r="I59" t="s">
+        <v>68</v>
+      </c>
       <c r="K59" s="23">
         <v>45106</v>
       </c>
@@ -12257,6 +12263,9 @@
       <c r="H60" t="s">
         <v>12</v>
       </c>
+      <c r="I60" t="s">
+        <v>68</v>
+      </c>
       <c r="K60" s="23">
         <v>45106</v>
       </c>
@@ -12395,6 +12404,9 @@
       <c r="H61" t="s">
         <v>10</v>
       </c>
+      <c r="I61" t="s">
+        <v>68</v>
+      </c>
       <c r="K61" s="23">
         <v>45106</v>
       </c>
@@ -12532,6 +12544,9 @@
       </c>
       <c r="H62" t="s">
         <v>8</v>
+      </c>
+      <c r="I62" t="s">
+        <v>68</v>
       </c>
       <c r="K62" s="23">
         <v>45106</v>
@@ -29184,7 +29199,7 @@
       </c>
       <c r="I4">
         <f>COUNTIF(テーブル1[ステータス],"完了")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J4">
         <f>COUNTIF(テーブル1[ステータス],"着手中")</f>
@@ -29200,7 +29215,7 @@
       </c>
       <c r="M4">
         <f>COUNTA(テーブル1[タスク])-I6</f>
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="3:13" x14ac:dyDescent="0.4">
@@ -29220,7 +29235,7 @@
       </c>
       <c r="I6">
         <f>I4+J4+K4+L4</f>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="3:13" x14ac:dyDescent="0.4">

--- a/doc/PJ管理.xlsx
+++ b/doc/PJ管理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3118FA-AF08-4F22-9472-A992C9D3DF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EB0AED-A7EF-487F-8CDF-0E3E777B3881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="3" xr2:uid="{18759526-B486-4F50-90B4-3DA4ED19388F}"/>
   </bookViews>
@@ -4080,7 +4080,7 @@
       <pane xSplit="12" ySplit="4" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/doc/PJ管理.xlsx
+++ b/doc/PJ管理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EB0AED-A7EF-487F-8CDF-0E3E777B3881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA87FC29-9FF2-4688-B5BB-05EF5A0E1BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="3" xr2:uid="{18759526-B486-4F50-90B4-3DA4ED19388F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{18759526-B486-4F50-90B4-3DA4ED19388F}"/>
   </bookViews>
   <sheets>
     <sheet name="プロジェクト体制" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="73">
   <si>
     <t>服装管理アプリ作成プロジェクト</t>
     <rPh sb="0" eb="2">
@@ -519,10 +519,6 @@
     <rPh sb="2" eb="5">
       <t>テイギショ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>プログラミング</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -3288,8 +3284,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1733550</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
@@ -3360,14 +3356,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>590549</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1733549</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1419225</xdr:colOff>
+      <xdr:colOff>191559</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
@@ -3551,7 +3547,7 @@
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
   <slicer name="項目" xr10:uid="{5E97F1AD-CCCC-474E-9ABA-AC29EB2730C8}" cache="スライサー_項目" caption="項目" style="SlicerStyleOther1" rowHeight="257175"/>
-  <slicer name="担当者" xr10:uid="{616F2A86-8D2A-489D-AD61-971462502F8B}" cache="スライサー_担当者" caption="担当者" style="SlicerStyleOther1" rowHeight="257175"/>
+  <slicer name="担当者" xr10:uid="{616F2A86-8D2A-489D-AD61-971462502F8B}" cache="スライサー_担当者" caption="担当者" startItem="2" style="SlicerStyleOther1" rowHeight="257175"/>
   <slicer name="ステータス" xr10:uid="{44296F9C-F3E0-4139-8AB8-EE41640AE565}" cache="スライサー_ステータス" caption="ステータス" style="SlicerStyleOther1" rowHeight="257175"/>
 </slicers>
 </file>
@@ -3875,44 +3871,44 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="2" spans="1:15" ht="24" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" ht="22.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="E7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="E8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="6" t="s">
         <v>5</v>
       </c>
@@ -3934,7 +3930,7 @@
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -3971,28 +3967,28 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="4.125" customWidth="1"/>
-    <col min="3" max="3" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.08203125" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="24" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3" ht="22.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" t="s">
         <v>21</v>
       </c>
@@ -4011,57 +4007,57 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="4.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="24" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3" ht="22.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" t="s">
         <v>17</v>
       </c>
@@ -4076,31 +4072,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE037D95-2C6F-4C1A-BF41-FD6595FF0199}">
   <dimension ref="B1:AR192"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="12" ySplit="4" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="12" ySplit="4" topLeftCell="S18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
     <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.625" customWidth="1"/>
+    <col min="3" max="3" width="2.58203125" customWidth="1"/>
     <col min="4" max="4" width="2.25" customWidth="1"/>
-    <col min="5" max="5" width="2.375" customWidth="1"/>
-    <col min="6" max="6" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.08203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="31.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="18.375" customWidth="1"/>
-    <col min="13" max="13" width="4.375" customWidth="1"/>
-    <col min="14" max="14" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="44" width="3.875" customWidth="1"/>
+    <col min="11" max="12" width="18.33203125" customWidth="1"/>
+    <col min="13" max="13" width="4.33203125" customWidth="1"/>
+    <col min="14" max="14" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="44" width="3.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:44" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:44" x14ac:dyDescent="0.55000000000000004">
       <c r="B1">
         <v>2023</v>
       </c>
@@ -4114,8 +4110,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="2:44" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="2:44" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:44" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="3" spans="2:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N3" s="18" t="str">
         <f>TEXT(N4,"aaa")</f>
         <v>木</v>
@@ -4241,7 +4237,7 @@
         <v>土</v>
       </c>
     </row>
-    <row r="4" spans="2:44" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:44" x14ac:dyDescent="0.55000000000000004">
       <c r="F4" t="s">
         <v>27</v>
       </c>
@@ -4258,10 +4254,10 @@
         <v>30</v>
       </c>
       <c r="K4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" t="s">
         <v>62</v>
-      </c>
-      <c r="L4" t="s">
-        <v>63</v>
       </c>
       <c r="N4" s="21">
         <f>DATE($B$1,$D$1,COLUMN()-13)</f>
@@ -4388,7 +4384,7 @@
         <v>45108</v>
       </c>
     </row>
-    <row r="5" spans="2:44" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:44" x14ac:dyDescent="0.55000000000000004">
       <c r="F5" t="s">
         <v>44</v>
       </c>
@@ -4396,7 +4392,7 @@
         <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J5" t="s">
         <v>35</v>
@@ -4532,7 +4528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:44" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:44" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="24"/>
       <c r="F6" t="s">
         <v>45</v>
@@ -4677,7 +4673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:44" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:44" x14ac:dyDescent="0.55000000000000004">
       <c r="F7" t="s">
         <v>45</v>
       </c>
@@ -4821,7 +4817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:44" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:44" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="25"/>
       <c r="F8" t="s">
         <v>32</v>
@@ -4966,7 +4962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:44" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:44" x14ac:dyDescent="0.55000000000000004">
       <c r="F9" t="s">
         <v>32</v>
       </c>
@@ -5110,7 +5106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:44" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:44" x14ac:dyDescent="0.55000000000000004">
       <c r="F10" t="s">
         <v>32</v>
       </c>
@@ -5254,7 +5250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:44" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:44" x14ac:dyDescent="0.55000000000000004">
       <c r="F11" t="s">
         <v>33</v>
       </c>
@@ -5398,7 +5394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:44" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:44" x14ac:dyDescent="0.55000000000000004">
       <c r="F12" t="s">
         <v>34</v>
       </c>
@@ -5407,9 +5403,6 @@
       </c>
       <c r="H12" t="s">
         <v>6</v>
-      </c>
-      <c r="I12" t="s">
-        <v>55</v>
       </c>
       <c r="J12" t="s">
         <v>35</v>
@@ -5545,7 +5538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:44" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:44" x14ac:dyDescent="0.55000000000000004">
       <c r="F13" t="s">
         <v>34</v>
       </c>
@@ -5554,9 +5547,6 @@
       </c>
       <c r="H13" t="s">
         <v>10</v>
-      </c>
-      <c r="I13" t="s">
-        <v>55</v>
       </c>
       <c r="J13" t="s">
         <v>35</v>
@@ -5692,7 +5682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:44" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:44" x14ac:dyDescent="0.55000000000000004">
       <c r="F14" t="s">
         <v>34</v>
       </c>
@@ -5701,9 +5691,6 @@
       </c>
       <c r="H14" t="s">
         <v>8</v>
-      </c>
-      <c r="I14" t="s">
-        <v>55</v>
       </c>
       <c r="J14" t="s">
         <v>35</v>
@@ -5839,7 +5826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:44" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:44" x14ac:dyDescent="0.55000000000000004">
       <c r="F15" t="s">
         <v>34</v>
       </c>
@@ -5848,9 +5835,6 @@
       </c>
       <c r="H15" t="s">
         <v>4</v>
-      </c>
-      <c r="I15" t="s">
-        <v>55</v>
       </c>
       <c r="J15" t="s">
         <v>35</v>
@@ -5986,18 +5970,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:44" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:44" x14ac:dyDescent="0.55000000000000004">
       <c r="F16" t="s">
         <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H16" t="s">
         <v>12</v>
-      </c>
-      <c r="I16" t="s">
-        <v>56</v>
       </c>
       <c r="J16" t="s">
         <v>35</v>
@@ -6133,18 +6114,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="6:44" x14ac:dyDescent="0.4">
+    <row r="17" spans="6:44" x14ac:dyDescent="0.55000000000000004">
       <c r="F17" t="s">
         <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="H17" t="s">
         <v>6</v>
-      </c>
-      <c r="I17" t="s">
-        <v>64</v>
       </c>
       <c r="J17" t="s">
         <v>36</v>
@@ -6280,18 +6258,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="6:44" x14ac:dyDescent="0.4">
+    <row r="18" spans="6:44" x14ac:dyDescent="0.55000000000000004">
       <c r="F18" t="s">
         <v>34</v>
       </c>
       <c r="G18" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="H18" t="s">
         <v>10</v>
-      </c>
-      <c r="I18" t="s">
-        <v>64</v>
       </c>
       <c r="J18" t="s">
         <v>36</v>
@@ -6427,18 +6402,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="6:44" x14ac:dyDescent="0.4">
+    <row r="19" spans="6:44" x14ac:dyDescent="0.55000000000000004">
       <c r="F19" t="s">
         <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="H19" t="s">
         <v>8</v>
-      </c>
-      <c r="I19" t="s">
-        <v>64</v>
       </c>
       <c r="J19" t="s">
         <v>36</v>
@@ -6574,18 +6546,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="6:44" x14ac:dyDescent="0.4">
+    <row r="20" spans="6:44" x14ac:dyDescent="0.55000000000000004">
       <c r="F20" t="s">
         <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="H20" t="s">
         <v>4</v>
-      </c>
-      <c r="I20" t="s">
-        <v>64</v>
       </c>
       <c r="J20" t="s">
         <v>36</v>
@@ -6721,18 +6690,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="6:44" x14ac:dyDescent="0.4">
+    <row r="21" spans="6:44" x14ac:dyDescent="0.55000000000000004">
       <c r="F21" t="s">
         <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="H21" t="s">
         <v>12</v>
-      </c>
-      <c r="I21" t="s">
-        <v>65</v>
       </c>
       <c r="J21" t="s">
         <v>36</v>
@@ -6868,18 +6834,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="6:44" x14ac:dyDescent="0.4">
+    <row r="22" spans="6:44" x14ac:dyDescent="0.55000000000000004">
       <c r="F22" t="s">
         <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="H22" t="s">
         <v>6</v>
-      </c>
-      <c r="I22" t="s">
-        <v>65</v>
       </c>
       <c r="K22" s="23">
         <v>45093</v>
@@ -7012,18 +6975,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="6:44" x14ac:dyDescent="0.4">
+    <row r="23" spans="6:44" x14ac:dyDescent="0.55000000000000004">
       <c r="F23" t="s">
         <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="H23" t="s">
         <v>10</v>
-      </c>
-      <c r="I23" t="s">
-        <v>65</v>
       </c>
       <c r="K23" s="23">
         <v>45093</v>
@@ -7156,18 +7116,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="6:44" x14ac:dyDescent="0.4">
+    <row r="24" spans="6:44" x14ac:dyDescent="0.55000000000000004">
       <c r="F24" t="s">
         <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="H24" t="s">
         <v>8</v>
-      </c>
-      <c r="I24" t="s">
-        <v>65</v>
       </c>
       <c r="K24" s="23">
         <v>45093</v>
@@ -7300,18 +7257,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="6:44" x14ac:dyDescent="0.4">
+    <row r="25" spans="6:44" x14ac:dyDescent="0.55000000000000004">
       <c r="F25" t="s">
         <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="H25" t="s">
         <v>4</v>
-      </c>
-      <c r="I25" t="s">
-        <v>65</v>
       </c>
       <c r="K25" s="23">
         <v>45093</v>
@@ -7444,18 +7398,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="6:44" x14ac:dyDescent="0.4">
+    <row r="26" spans="6:44" x14ac:dyDescent="0.55000000000000004">
       <c r="F26" t="s">
         <v>34</v>
       </c>
       <c r="G26" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="H26" t="s">
         <v>12</v>
-      </c>
-      <c r="I26" t="s">
-        <v>65</v>
       </c>
       <c r="K26" s="23">
         <v>45093</v>
@@ -7588,18 +7539,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="6:44" x14ac:dyDescent="0.4">
+    <row r="27" spans="6:44" x14ac:dyDescent="0.55000000000000004">
       <c r="F27" t="s">
         <v>34</v>
       </c>
       <c r="G27" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="H27" t="s">
         <v>6</v>
-      </c>
-      <c r="I27" t="s">
-        <v>71</v>
       </c>
       <c r="K27" s="23">
         <v>45096</v>
@@ -7732,18 +7680,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="6:44" x14ac:dyDescent="0.4">
+    <row r="28" spans="6:44" x14ac:dyDescent="0.55000000000000004">
       <c r="F28" t="s">
         <v>34</v>
       </c>
       <c r="G28" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="H28" t="s">
         <v>10</v>
-      </c>
-      <c r="I28" t="s">
-        <v>71</v>
       </c>
       <c r="K28" s="23">
         <v>45096</v>
@@ -7876,18 +7821,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="6:44" x14ac:dyDescent="0.4">
+    <row r="29" spans="6:44" x14ac:dyDescent="0.55000000000000004">
       <c r="F29" t="s">
         <v>34</v>
       </c>
       <c r="G29" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="H29" t="s">
         <v>8</v>
-      </c>
-      <c r="I29" t="s">
-        <v>71</v>
       </c>
       <c r="K29" s="23">
         <v>45096</v>
@@ -8020,18 +7962,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="6:44" x14ac:dyDescent="0.4">
+    <row r="30" spans="6:44" x14ac:dyDescent="0.55000000000000004">
       <c r="F30" t="s">
         <v>34</v>
       </c>
       <c r="G30" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="H30" t="s">
         <v>4</v>
-      </c>
-      <c r="I30" t="s">
-        <v>71</v>
       </c>
       <c r="K30" s="23">
         <v>45096</v>
@@ -8164,18 +8103,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="6:44" x14ac:dyDescent="0.4">
+    <row r="31" spans="6:44" x14ac:dyDescent="0.55000000000000004">
       <c r="F31" t="s">
         <v>34</v>
       </c>
       <c r="G31" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="H31" t="s">
         <v>12</v>
-      </c>
-      <c r="I31" t="s">
-        <v>71</v>
       </c>
       <c r="K31" s="23">
         <v>45096</v>
@@ -8308,18 +8244,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="6:44" x14ac:dyDescent="0.4">
+    <row r="32" spans="6:44" x14ac:dyDescent="0.55000000000000004">
       <c r="F32" t="s">
         <v>34</v>
       </c>
       <c r="G32" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="H32" t="s">
         <v>6</v>
-      </c>
-      <c r="I32" t="s">
-        <v>73</v>
       </c>
       <c r="K32" s="23">
         <v>45096</v>
@@ -8452,18 +8385,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="6:44" x14ac:dyDescent="0.4">
+    <row r="33" spans="6:44" x14ac:dyDescent="0.55000000000000004">
       <c r="F33" t="s">
         <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="H33" t="s">
         <v>10</v>
-      </c>
-      <c r="I33" t="s">
-        <v>73</v>
       </c>
       <c r="K33" s="23">
         <v>45096</v>
@@ -8596,18 +8526,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="6:44" x14ac:dyDescent="0.4">
+    <row r="34" spans="6:44" x14ac:dyDescent="0.55000000000000004">
       <c r="F34" t="s">
         <v>34</v>
       </c>
       <c r="G34" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="H34" t="s">
         <v>8</v>
-      </c>
-      <c r="I34" t="s">
-        <v>73</v>
       </c>
       <c r="K34" s="23">
         <v>45096</v>
@@ -8740,18 +8667,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="6:44" x14ac:dyDescent="0.4">
+    <row r="35" spans="6:44" x14ac:dyDescent="0.55000000000000004">
       <c r="F35" t="s">
         <v>34</v>
       </c>
       <c r="G35" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="H35" t="s">
         <v>4</v>
-      </c>
-      <c r="I35" t="s">
-        <v>73</v>
       </c>
       <c r="K35" s="23">
         <v>45096</v>
@@ -8884,18 +8808,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="6:44" x14ac:dyDescent="0.4">
+    <row r="36" spans="6:44" x14ac:dyDescent="0.55000000000000004">
       <c r="F36" t="s">
         <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="H36" t="s">
         <v>12</v>
-      </c>
-      <c r="I36" t="s">
-        <v>73</v>
       </c>
       <c r="K36" s="23">
         <v>45096</v>
@@ -9028,18 +8949,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="6:44" x14ac:dyDescent="0.4">
+    <row r="37" spans="6:44" x14ac:dyDescent="0.55000000000000004">
       <c r="F37" t="s">
         <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="H37" t="s">
         <v>6</v>
-      </c>
-      <c r="I37" t="s">
-        <v>72</v>
       </c>
       <c r="K37" s="23">
         <v>45096</v>
@@ -9172,18 +9090,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="6:44" x14ac:dyDescent="0.4">
+    <row r="38" spans="6:44" x14ac:dyDescent="0.55000000000000004">
       <c r="F38" t="s">
         <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="H38" t="s">
         <v>10</v>
-      </c>
-      <c r="I38" t="s">
-        <v>72</v>
       </c>
       <c r="K38" s="23">
         <v>45096</v>
@@ -9316,18 +9231,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="6:44" x14ac:dyDescent="0.4">
+    <row r="39" spans="6:44" x14ac:dyDescent="0.55000000000000004">
       <c r="F39" t="s">
         <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="H39" t="s">
         <v>8</v>
-      </c>
-      <c r="I39" t="s">
-        <v>72</v>
       </c>
       <c r="K39" s="23">
         <v>45096</v>
@@ -9460,18 +9372,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="6:44" x14ac:dyDescent="0.4">
+    <row r="40" spans="6:44" x14ac:dyDescent="0.55000000000000004">
       <c r="F40" t="s">
         <v>34</v>
       </c>
       <c r="G40" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="H40" t="s">
         <v>4</v>
-      </c>
-      <c r="I40" t="s">
-        <v>72</v>
       </c>
       <c r="K40" s="23">
         <v>45096</v>
@@ -9604,18 +9513,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="6:44" x14ac:dyDescent="0.4">
+    <row r="41" spans="6:44" x14ac:dyDescent="0.55000000000000004">
       <c r="F41" t="s">
         <v>34</v>
       </c>
       <c r="G41" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="H41" t="s">
         <v>12</v>
-      </c>
-      <c r="I41" t="s">
-        <v>72</v>
       </c>
       <c r="K41" s="23">
         <v>45096</v>
@@ -9748,7 +9654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="6:44" x14ac:dyDescent="0.4">
+    <row r="42" spans="6:44" x14ac:dyDescent="0.55000000000000004">
       <c r="F42" t="s">
         <v>51</v>
       </c>
@@ -9886,7 +9792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="6:44" x14ac:dyDescent="0.4">
+    <row r="43" spans="6:44" x14ac:dyDescent="0.55000000000000004">
       <c r="F43" t="s">
         <v>51</v>
       </c>
@@ -10024,7 +9930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="6:44" x14ac:dyDescent="0.4">
+    <row r="44" spans="6:44" x14ac:dyDescent="0.55000000000000004">
       <c r="F44" t="s">
         <v>51</v>
       </c>
@@ -10162,7 +10068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="6:44" x14ac:dyDescent="0.4">
+    <row r="45" spans="6:44" x14ac:dyDescent="0.55000000000000004">
       <c r="F45" t="s">
         <v>51</v>
       </c>
@@ -10300,15 +10206,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="6:44" x14ac:dyDescent="0.4">
+    <row r="46" spans="6:44" x14ac:dyDescent="0.55000000000000004">
       <c r="F46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H46" t="s">
         <v>10</v>
       </c>
       <c r="I46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K46" s="23">
         <v>45103</v>
@@ -10441,7 +10347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="6:44" x14ac:dyDescent="0.4">
+    <row r="47" spans="6:44" x14ac:dyDescent="0.55000000000000004">
       <c r="F47" t="s">
         <v>51</v>
       </c>
@@ -10579,7 +10485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="6:44" x14ac:dyDescent="0.4">
+    <row r="48" spans="6:44" x14ac:dyDescent="0.55000000000000004">
       <c r="F48" t="s">
         <v>51</v>
       </c>
@@ -10717,7 +10623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="6:44" x14ac:dyDescent="0.4">
+    <row r="49" spans="6:44" x14ac:dyDescent="0.55000000000000004">
       <c r="F49" t="s">
         <v>51</v>
       </c>
@@ -10855,15 +10761,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="6:44" x14ac:dyDescent="0.4">
+    <row r="50" spans="6:44" x14ac:dyDescent="0.55000000000000004">
       <c r="F50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H50" t="s">
         <v>6</v>
       </c>
       <c r="I50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K50" s="23">
         <v>45104</v>
@@ -10996,15 +10902,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="6:44" x14ac:dyDescent="0.4">
+    <row r="51" spans="6:44" x14ac:dyDescent="0.55000000000000004">
       <c r="F51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H51" t="s">
         <v>8</v>
       </c>
       <c r="I51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K51" s="23">
         <v>45104</v>
@@ -11137,7 +11043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="6:44" x14ac:dyDescent="0.4">
+    <row r="52" spans="6:44" x14ac:dyDescent="0.55000000000000004">
       <c r="F52" t="s">
         <v>51</v>
       </c>
@@ -11275,7 +11181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="6:44" x14ac:dyDescent="0.4">
+    <row r="53" spans="6:44" x14ac:dyDescent="0.55000000000000004">
       <c r="F53" t="s">
         <v>51</v>
       </c>
@@ -11413,15 +11319,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="6:44" x14ac:dyDescent="0.4">
+    <row r="54" spans="6:44" x14ac:dyDescent="0.55000000000000004">
       <c r="F54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H54" t="s">
         <v>6</v>
       </c>
       <c r="I54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K54" s="23">
         <v>45105</v>
@@ -11554,15 +11460,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="6:44" x14ac:dyDescent="0.4">
+    <row r="55" spans="6:44" x14ac:dyDescent="0.55000000000000004">
       <c r="F55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H55" t="s">
         <v>10</v>
       </c>
       <c r="I55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K55" s="23">
         <v>45105</v>
@@ -11695,15 +11601,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="6:44" x14ac:dyDescent="0.4">
+    <row r="56" spans="6:44" x14ac:dyDescent="0.55000000000000004">
       <c r="F56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H56" t="s">
         <v>4</v>
       </c>
       <c r="I56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K56" s="23">
         <v>45105</v>
@@ -11836,15 +11742,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="6:44" x14ac:dyDescent="0.4">
+    <row r="57" spans="6:44" x14ac:dyDescent="0.55000000000000004">
       <c r="F57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K57" s="23">
         <v>45105</v>
@@ -11977,7 +11883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="6:44" x14ac:dyDescent="0.4">
+    <row r="58" spans="6:44" x14ac:dyDescent="0.55000000000000004">
       <c r="F58" t="s">
         <v>51</v>
       </c>
@@ -12115,15 +12021,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="6:44" x14ac:dyDescent="0.4">
+    <row r="59" spans="6:44" x14ac:dyDescent="0.55000000000000004">
       <c r="F59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H59" t="s">
         <v>6</v>
       </c>
       <c r="I59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K59" s="23">
         <v>45106</v>
@@ -12256,15 +12162,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="6:44" x14ac:dyDescent="0.4">
+    <row r="60" spans="6:44" x14ac:dyDescent="0.55000000000000004">
       <c r="F60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H60" t="s">
         <v>12</v>
       </c>
       <c r="I60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K60" s="23">
         <v>45106</v>
@@ -12397,15 +12303,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="6:44" x14ac:dyDescent="0.4">
+    <row r="61" spans="6:44" x14ac:dyDescent="0.55000000000000004">
       <c r="F61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H61" t="s">
         <v>10</v>
       </c>
       <c r="I61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K61" s="23">
         <v>45106</v>
@@ -12538,15 +12444,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="6:44" x14ac:dyDescent="0.4">
+    <row r="62" spans="6:44" x14ac:dyDescent="0.55000000000000004">
       <c r="F62" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H62" t="s">
         <v>8</v>
       </c>
       <c r="I62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K62" s="23">
         <v>45106</v>
@@ -12679,15 +12585,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="6:44" x14ac:dyDescent="0.4">
+    <row r="63" spans="6:44" x14ac:dyDescent="0.55000000000000004">
       <c r="F63" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K63" s="23">
         <v>45106</v>
@@ -12820,12 +12726,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="6:44" x14ac:dyDescent="0.4">
+    <row r="64" spans="6:44" x14ac:dyDescent="0.55000000000000004">
       <c r="F64" t="s">
+        <v>59</v>
+      </c>
+      <c r="H64" t="s">
         <v>60</v>
-      </c>
-      <c r="H64" t="s">
-        <v>61</v>
       </c>
       <c r="K64" s="23">
         <v>45107</v>
@@ -12958,7 +12864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="65" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N65" s="26">
         <f t="shared" si="14"/>
         <v>3</v>
@@ -13084,7 +12990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="66" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N66" s="26">
         <f t="shared" si="14"/>
         <v>3</v>
@@ -13210,7 +13116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="67" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N67" s="26">
         <f t="shared" si="14"/>
         <v>3</v>
@@ -13336,7 +13242,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="68" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N68" s="26">
         <f t="shared" si="14"/>
         <v>3</v>
@@ -13462,7 +13368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="69" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N69" s="26">
         <f t="shared" si="14"/>
         <v>3</v>
@@ -13588,7 +13494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="70" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N70" s="26">
         <f t="shared" si="14"/>
         <v>3</v>
@@ -13714,7 +13620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="71" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N71" s="26">
         <f t="shared" si="14"/>
         <v>3</v>
@@ -13840,7 +13746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="72" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N72" s="26">
         <f t="shared" si="16"/>
         <v>3</v>
@@ -13966,7 +13872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="73" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N73" s="26">
         <f t="shared" si="16"/>
         <v>3</v>
@@ -14092,7 +13998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="74" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N74" s="26">
         <f t="shared" si="16"/>
         <v>3</v>
@@ -14218,7 +14124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="75" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N75" s="26">
         <f t="shared" si="16"/>
         <v>3</v>
@@ -14344,7 +14250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="76" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N76" s="26">
         <f t="shared" si="16"/>
         <v>3</v>
@@ -14470,7 +14376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="77" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N77" s="26">
         <f t="shared" si="16"/>
         <v>3</v>
@@ -14596,7 +14502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="78" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N78" s="26">
         <f t="shared" si="16"/>
         <v>3</v>
@@ -14722,7 +14628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="79" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N79" s="26">
         <f t="shared" si="16"/>
         <v>3</v>
@@ -14848,7 +14754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="80" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N80" s="26">
         <f t="shared" si="16"/>
         <v>3</v>
@@ -14974,7 +14880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="81" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N81" s="26">
         <f t="shared" si="16"/>
         <v>3</v>
@@ -15100,7 +15006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="82" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N82" s="26">
         <f t="shared" si="16"/>
         <v>3</v>
@@ -15226,7 +15132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="83" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N83" s="26">
         <f t="shared" si="16"/>
         <v>3</v>
@@ -15352,7 +15258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="84" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N84" s="26">
         <f t="shared" si="16"/>
         <v>3</v>
@@ -15478,7 +15384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="85" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N85" s="26">
         <f t="shared" si="16"/>
         <v>3</v>
@@ -15604,7 +15510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="86" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N86" s="26">
         <f t="shared" si="16"/>
         <v>3</v>
@@ -15730,7 +15636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="87" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N87" s="26">
         <f t="shared" si="16"/>
         <v>3</v>
@@ -15856,7 +15762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="88" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N88" s="26">
         <f t="shared" ref="N88:AC103" si="19">IF(N$4&gt;=$L88+2,3,IF($L88+1=N$4,2,IF(AND($K88&lt;=N$4,N$4&lt;=$L88),1,0)))</f>
         <v>3</v>
@@ -15982,7 +15888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="89" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N89" s="26">
         <f t="shared" si="19"/>
         <v>3</v>
@@ -16108,7 +16014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="90" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N90" s="26">
         <f t="shared" si="19"/>
         <v>3</v>
@@ -16234,7 +16140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="91" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N91" s="26">
         <f t="shared" si="19"/>
         <v>3</v>
@@ -16360,7 +16266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="92" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N92" s="26">
         <f t="shared" si="19"/>
         <v>3</v>
@@ -16486,7 +16392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="93" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N93" s="26">
         <f t="shared" si="19"/>
         <v>3</v>
@@ -16612,7 +16518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="94" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N94" s="26">
         <f t="shared" si="19"/>
         <v>3</v>
@@ -16738,7 +16644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="95" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N95" s="26">
         <f t="shared" si="19"/>
         <v>3</v>
@@ -16864,7 +16770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="96" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N96" s="26">
         <f t="shared" si="19"/>
         <v>3</v>
@@ -16990,7 +16896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="97" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N97" s="26">
         <f t="shared" si="19"/>
         <v>3</v>
@@ -17116,7 +17022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="98" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N98" s="26">
         <f t="shared" si="19"/>
         <v>3</v>
@@ -17242,7 +17148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="99" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N99" s="26">
         <f t="shared" si="19"/>
         <v>3</v>
@@ -17368,7 +17274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="100" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N100" s="26">
         <f t="shared" si="19"/>
         <v>3</v>
@@ -17494,7 +17400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="101" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N101" s="26">
         <f t="shared" si="19"/>
         <v>3</v>
@@ -17620,7 +17526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="102" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N102" s="26">
         <f t="shared" si="19"/>
         <v>3</v>
@@ -17746,7 +17652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="103" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N103" s="26">
         <f t="shared" si="19"/>
         <v>3</v>
@@ -17872,7 +17778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="104" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N104" s="26">
         <f t="shared" si="21"/>
         <v>3</v>
@@ -17998,7 +17904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="105" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N105" s="26">
         <f t="shared" si="21"/>
         <v>3</v>
@@ -18124,7 +18030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="106" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N106" s="26">
         <f t="shared" si="21"/>
         <v>3</v>
@@ -18250,7 +18156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="107" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N107" s="26">
         <f t="shared" si="21"/>
         <v>3</v>
@@ -18376,7 +18282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="108" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N108" s="26">
         <f t="shared" si="21"/>
         <v>3</v>
@@ -18502,7 +18408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="109" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N109" s="26">
         <f t="shared" si="21"/>
         <v>3</v>
@@ -18628,7 +18534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="110" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N110" s="26">
         <f t="shared" si="21"/>
         <v>3</v>
@@ -18754,7 +18660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="111" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N111" s="26">
         <f t="shared" si="21"/>
         <v>3</v>
@@ -18880,7 +18786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="112" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N112" s="26">
         <f t="shared" si="21"/>
         <v>3</v>
@@ -19006,7 +18912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="113" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N113" s="26">
         <f t="shared" si="21"/>
         <v>3</v>
@@ -19132,7 +19038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="114" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N114" s="26">
         <f t="shared" si="21"/>
         <v>3</v>
@@ -19258,7 +19164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="115" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N115" s="26">
         <f t="shared" si="21"/>
         <v>3</v>
@@ -19384,7 +19290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="116" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N116" s="26">
         <f t="shared" si="21"/>
         <v>3</v>
@@ -19510,7 +19416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="117" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N117" s="26">
         <f t="shared" si="21"/>
         <v>3</v>
@@ -19636,7 +19542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="118" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N118" s="26">
         <f t="shared" si="21"/>
         <v>3</v>
@@ -19762,7 +19668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="119" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N119" s="26">
         <f t="shared" si="21"/>
         <v>3</v>
@@ -19888,7 +19794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="120" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N120" s="26">
         <f t="shared" ref="N120:AC135" si="25">IF(N$4&gt;=$L120+2,3,IF($L120+1=N$4,2,IF(AND($K120&lt;=N$4,N$4&lt;=$L120),1,0)))</f>
         <v>3</v>
@@ -20014,7 +19920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="121" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N121" s="26">
         <f t="shared" si="25"/>
         <v>3</v>
@@ -20140,7 +20046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="122" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N122" s="26">
         <f t="shared" si="25"/>
         <v>3</v>
@@ -20266,7 +20172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="123" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N123" s="26">
         <f t="shared" si="25"/>
         <v>3</v>
@@ -20392,7 +20298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="124" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N124" s="26">
         <f t="shared" si="25"/>
         <v>3</v>
@@ -20518,7 +20424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="125" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N125" s="26">
         <f t="shared" si="25"/>
         <v>3</v>
@@ -20644,7 +20550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="126" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N126" s="26">
         <f t="shared" si="25"/>
         <v>3</v>
@@ -20770,7 +20676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="127" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N127" s="26">
         <f t="shared" si="25"/>
         <v>3</v>
@@ -20896,7 +20802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="128" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N128" s="26">
         <f t="shared" si="25"/>
         <v>3</v>
@@ -21022,7 +20928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="129" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N129" s="26">
         <f t="shared" si="25"/>
         <v>3</v>
@@ -21148,7 +21054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="130" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N130" s="26">
         <f t="shared" si="25"/>
         <v>3</v>
@@ -21274,7 +21180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="131" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N131" s="26">
         <f t="shared" si="25"/>
         <v>3</v>
@@ -21400,7 +21306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="132" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N132" s="26">
         <f t="shared" si="25"/>
         <v>3</v>
@@ -21526,7 +21432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="133" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N133" s="26">
         <f t="shared" si="25"/>
         <v>3</v>
@@ -21652,7 +21558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="134" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N134" s="26">
         <f t="shared" si="25"/>
         <v>3</v>
@@ -21778,7 +21684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="135" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N135" s="26">
         <f t="shared" si="25"/>
         <v>3</v>
@@ -21904,7 +21810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="136" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N136" s="26">
         <f t="shared" si="26"/>
         <v>3</v>
@@ -22030,7 +21936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="137" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N137" s="26">
         <f t="shared" si="26"/>
         <v>3</v>
@@ -22156,7 +22062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="138" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N138" s="26">
         <f t="shared" si="26"/>
         <v>3</v>
@@ -22282,7 +22188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="139" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N139" s="26">
         <f t="shared" si="26"/>
         <v>3</v>
@@ -22408,7 +22314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="140" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N140" s="26">
         <f t="shared" si="26"/>
         <v>3</v>
@@ -22534,7 +22440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="141" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N141" s="26">
         <f t="shared" si="26"/>
         <v>3</v>
@@ -22660,7 +22566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="142" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N142" s="26">
         <f t="shared" si="26"/>
         <v>3</v>
@@ -22786,7 +22692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="143" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N143" s="26">
         <f t="shared" si="26"/>
         <v>3</v>
@@ -22912,7 +22818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="144" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N144" s="26">
         <f t="shared" si="26"/>
         <v>3</v>
@@ -23038,7 +22944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="145" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N145" s="26">
         <f t="shared" si="26"/>
         <v>3</v>
@@ -23164,7 +23070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="146" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N146" s="26">
         <f t="shared" si="26"/>
         <v>3</v>
@@ -23290,7 +23196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="147" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N147" s="26">
         <f t="shared" si="26"/>
         <v>3</v>
@@ -23416,7 +23322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="148" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N148" s="26">
         <f t="shared" si="26"/>
         <v>3</v>
@@ -23542,7 +23448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="149" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N149" s="26">
         <f t="shared" si="26"/>
         <v>3</v>
@@ -23668,7 +23574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="150" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N150" s="26">
         <f t="shared" si="26"/>
         <v>3</v>
@@ -23794,7 +23700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="151" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N151" s="26">
         <f t="shared" si="26"/>
         <v>3</v>
@@ -23920,7 +23826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="152" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N152" s="26">
         <f t="shared" ref="N152:AC167" si="30">IF(N$4&gt;=$L152+2,3,IF($L152+1=N$4,2,IF(AND($K152&lt;=N$4,N$4&lt;=$L152),1,0)))</f>
         <v>3</v>
@@ -24046,7 +23952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="153" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N153" s="26">
         <f t="shared" si="30"/>
         <v>3</v>
@@ -24172,7 +24078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="154" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N154" s="26">
         <f t="shared" si="30"/>
         <v>3</v>
@@ -24298,7 +24204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="155" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N155" s="26">
         <f t="shared" si="30"/>
         <v>3</v>
@@ -24424,7 +24330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="156" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N156" s="26">
         <f t="shared" si="30"/>
         <v>3</v>
@@ -24550,7 +24456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="157" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N157" s="26">
         <f t="shared" si="30"/>
         <v>3</v>
@@ -24676,7 +24582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="158" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N158" s="26">
         <f t="shared" si="30"/>
         <v>3</v>
@@ -24802,7 +24708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="159" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N159" s="26">
         <f t="shared" si="30"/>
         <v>3</v>
@@ -24928,7 +24834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="160" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N160" s="26">
         <f t="shared" si="30"/>
         <v>3</v>
@@ -25054,7 +24960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="161" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N161" s="26">
         <f t="shared" si="30"/>
         <v>3</v>
@@ -25180,7 +25086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="162" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N162" s="26">
         <f t="shared" si="30"/>
         <v>3</v>
@@ -25306,7 +25212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="163" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N163" s="26">
         <f t="shared" si="30"/>
         <v>3</v>
@@ -25432,7 +25338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="164" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N164" s="26">
         <f t="shared" si="30"/>
         <v>3</v>
@@ -25558,7 +25464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="165" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N165" s="26">
         <f t="shared" si="30"/>
         <v>3</v>
@@ -25684,7 +25590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="166" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N166" s="26">
         <f t="shared" si="30"/>
         <v>3</v>
@@ -25810,7 +25716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="167" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N167" s="26">
         <f t="shared" si="30"/>
         <v>3</v>
@@ -25936,7 +25842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="168" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N168" s="26">
         <f t="shared" si="32"/>
         <v>3</v>
@@ -26062,7 +25968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="169" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N169" s="26">
         <f t="shared" si="32"/>
         <v>3</v>
@@ -26188,7 +26094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="170" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N170" s="26">
         <f t="shared" si="32"/>
         <v>3</v>
@@ -26314,7 +26220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="171" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N171" s="26">
         <f t="shared" si="32"/>
         <v>3</v>
@@ -26440,7 +26346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="172" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N172" s="26">
         <f t="shared" si="32"/>
         <v>3</v>
@@ -26566,7 +26472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="173" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N173" s="26">
         <f t="shared" si="32"/>
         <v>3</v>
@@ -26692,7 +26598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="174" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N174" s="26">
         <f t="shared" si="32"/>
         <v>3</v>
@@ -26818,7 +26724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="175" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N175" s="26">
         <f t="shared" si="32"/>
         <v>3</v>
@@ -26944,7 +26850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="176" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N176" s="26">
         <f t="shared" si="32"/>
         <v>3</v>
@@ -27070,7 +26976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="177" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N177" s="26">
         <f t="shared" si="32"/>
         <v>3</v>
@@ -27196,7 +27102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="178" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N178" s="26">
         <f t="shared" si="32"/>
         <v>3</v>
@@ -27322,7 +27228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="179" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N179" s="26">
         <f t="shared" si="32"/>
         <v>3</v>
@@ -27448,7 +27354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="180" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N180" s="26">
         <f t="shared" si="32"/>
         <v>3</v>
@@ -27574,7 +27480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="181" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N181" s="26">
         <f t="shared" si="32"/>
         <v>3</v>
@@ -27700,7 +27606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="182" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N182" s="26">
         <f t="shared" si="32"/>
         <v>3</v>
@@ -27826,7 +27732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="183" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N183" s="26">
         <f t="shared" si="32"/>
         <v>3</v>
@@ -27952,7 +27858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="184" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N184" s="26">
         <f t="shared" ref="N184:AC192" si="36">IF(N$4&gt;=$L184+2,3,IF($L184+1=N$4,2,IF(AND($K184&lt;=N$4,N$4&lt;=$L184),1,0)))</f>
         <v>3</v>
@@ -28078,7 +27984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="185" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N185" s="26">
         <f t="shared" si="36"/>
         <v>3</v>
@@ -28204,7 +28110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="186" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N186" s="26">
         <f t="shared" si="36"/>
         <v>3</v>
@@ -28330,7 +28236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="187" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N187" s="26">
         <f t="shared" si="36"/>
         <v>3</v>
@@ -28456,7 +28362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="188" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N188" s="26">
         <f t="shared" si="36"/>
         <v>3</v>
@@ -28582,7 +28488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="189" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N189" s="26">
         <f t="shared" si="36"/>
         <v>3</v>
@@ -28708,7 +28614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="190" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N190" s="26">
         <f t="shared" si="36"/>
         <v>3</v>
@@ -28834,7 +28740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="191" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N191" s="26">
         <f t="shared" si="36"/>
         <v>3</v>
@@ -28960,7 +28866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="14:44" x14ac:dyDescent="0.4">
+    <row r="192" spans="14:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N192" s="26">
         <f t="shared" si="36"/>
         <v>3</v>
@@ -29165,9 +29071,9 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -29190,7 +29096,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" t="s">
         <v>12</v>
       </c>
@@ -29218,7 +29124,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" t="s">
         <v>10</v>
       </c>
@@ -29226,7 +29132,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" t="s">
         <v>8</v>
       </c>
@@ -29238,14 +29144,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/doc/PJ管理.xlsx
+++ b/doc/PJ管理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA87FC29-9FF2-4688-B5BB-05EF5A0E1BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5D0FF2-7CD5-47DA-A03A-283F6BC8FC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{18759526-B486-4F50-90B4-3DA4ED19388F}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="73">
   <si>
     <t>服装管理アプリ作成プロジェクト</t>
     <rPh sb="0" eb="2">
@@ -1137,7 +1137,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1208,7 +1208,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1355,7 +1355,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1680,10 +1680,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1692,7 +1692,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4073,10 +4073,10 @@
   <dimension ref="B1:AR192"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="12" ySplit="4" topLeftCell="S18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="4" topLeftCell="M20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
+      <selection pane="bottomRight" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -6125,7 +6125,7 @@
         <v>6</v>
       </c>
       <c r="J17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K17" s="23">
         <v>45091</v>
@@ -6269,7 +6269,7 @@
         <v>10</v>
       </c>
       <c r="J18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K18" s="23">
         <v>45091</v>
@@ -6413,7 +6413,7 @@
         <v>8</v>
       </c>
       <c r="J19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K19" s="23">
         <v>45091</v>
@@ -6557,7 +6557,7 @@
         <v>4</v>
       </c>
       <c r="J20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K20" s="23">
         <v>45091</v>
@@ -6844,6 +6844,9 @@
       <c r="H22" t="s">
         <v>6</v>
       </c>
+      <c r="J22" t="s">
+        <v>36</v>
+      </c>
       <c r="K22" s="23">
         <v>45093</v>
       </c>
@@ -6985,6 +6988,9 @@
       <c r="H23" t="s">
         <v>10</v>
       </c>
+      <c r="J23" t="s">
+        <v>36</v>
+      </c>
       <c r="K23" s="23">
         <v>45093</v>
       </c>
@@ -7126,6 +7132,9 @@
       <c r="H24" t="s">
         <v>8</v>
       </c>
+      <c r="J24" t="s">
+        <v>36</v>
+      </c>
       <c r="K24" s="23">
         <v>45093</v>
       </c>
@@ -7267,6 +7276,9 @@
       <c r="H25" t="s">
         <v>4</v>
       </c>
+      <c r="J25" t="s">
+        <v>36</v>
+      </c>
       <c r="K25" s="23">
         <v>45093</v>
       </c>
@@ -7407,6 +7419,9 @@
       </c>
       <c r="H26" t="s">
         <v>12</v>
+      </c>
+      <c r="J26" t="s">
+        <v>36</v>
       </c>
       <c r="K26" s="23">
         <v>45093</v>
@@ -29105,11 +29120,11 @@
       </c>
       <c r="I4">
         <f>COUNTIF(テーブル1[ステータス],"完了")</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J4">
         <f>COUNTIF(テーブル1[ステータス],"着手中")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K4">
         <f>COUNTIF(テーブル1[ステータス],"遅延")</f>
@@ -29121,7 +29136,7 @@
       </c>
       <c r="M4">
         <f>COUNTA(テーブル1[タスク])-I6</f>
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="3:13" x14ac:dyDescent="0.55000000000000004">
@@ -29141,7 +29156,7 @@
       </c>
       <c r="I6">
         <f>I4+J4+K4+L4</f>
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="3:13" x14ac:dyDescent="0.55000000000000004">

--- a/doc/PJ管理.xlsx
+++ b/doc/PJ管理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5D0FF2-7CD5-47DA-A03A-283F6BC8FC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0102D35D-754A-48F6-95BD-05D2B2817C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{18759526-B486-4F50-90B4-3DA4ED19388F}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="73">
   <si>
     <t>服装管理アプリ作成プロジェクト</t>
     <rPh sb="0" eb="2">
@@ -1137,7 +1137,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1355,7 +1355,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1680,7 +1680,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6</c:v>
@@ -1692,7 +1692,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4073,10 +4073,10 @@
   <dimension ref="B1:AR192"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="12" ySplit="4" topLeftCell="M20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="4" topLeftCell="M22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J26" sqref="J26"/>
+      <selection pane="bottomRight" activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -6701,7 +6701,7 @@
         <v>12</v>
       </c>
       <c r="J21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K21" s="23">
         <v>45091</v>
@@ -6845,7 +6845,7 @@
         <v>6</v>
       </c>
       <c r="J22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K22" s="23">
         <v>45093</v>
@@ -6989,7 +6989,7 @@
         <v>10</v>
       </c>
       <c r="J23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K23" s="23">
         <v>45093</v>
@@ -7133,7 +7133,7 @@
         <v>8</v>
       </c>
       <c r="J24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K24" s="23">
         <v>45093</v>
@@ -7277,7 +7277,7 @@
         <v>4</v>
       </c>
       <c r="J25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K25" s="23">
         <v>45093</v>
@@ -7564,6 +7564,9 @@
       <c r="H27" t="s">
         <v>6</v>
       </c>
+      <c r="J27" t="s">
+        <v>36</v>
+      </c>
       <c r="K27" s="23">
         <v>45096</v>
       </c>
@@ -7705,6 +7708,9 @@
       <c r="H28" t="s">
         <v>10</v>
       </c>
+      <c r="J28" t="s">
+        <v>36</v>
+      </c>
       <c r="K28" s="23">
         <v>45096</v>
       </c>
@@ -7846,6 +7852,9 @@
       <c r="H29" t="s">
         <v>8</v>
       </c>
+      <c r="J29" t="s">
+        <v>36</v>
+      </c>
       <c r="K29" s="23">
         <v>45096</v>
       </c>
@@ -7987,6 +7996,9 @@
       <c r="H30" t="s">
         <v>4</v>
       </c>
+      <c r="J30" t="s">
+        <v>36</v>
+      </c>
       <c r="K30" s="23">
         <v>45096</v>
       </c>
@@ -8127,6 +8139,9 @@
       </c>
       <c r="H31" t="s">
         <v>12</v>
+      </c>
+      <c r="J31" t="s">
+        <v>36</v>
       </c>
       <c r="K31" s="23">
         <v>45096</v>
@@ -29120,7 +29135,7 @@
       </c>
       <c r="I4">
         <f>COUNTIF(テーブル1[ステータス],"完了")</f>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J4">
         <f>COUNTIF(テーブル1[ステータス],"着手中")</f>
@@ -29136,7 +29151,7 @@
       </c>
       <c r="M4">
         <f>COUNTA(テーブル1[タスク])-I6</f>
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="3:13" x14ac:dyDescent="0.55000000000000004">
@@ -29156,7 +29171,7 @@
       </c>
       <c r="I6">
         <f>I4+J4+K4+L4</f>
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="3:13" x14ac:dyDescent="0.55000000000000004">

--- a/doc/PJ管理.xlsx
+++ b/doc/PJ管理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AB3352-D1C1-407C-9C0B-71D8ED70047E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B076E5-6FB9-4FC8-A37E-231F402A360B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="15600" activeTab="3" xr2:uid="{18759526-B486-4F50-90B4-3DA4ED19388F}"/>
   </bookViews>
@@ -17,7 +17,8 @@
     <sheet name="チーム目標" sheetId="2" r:id="rId2"/>
     <sheet name="プロジェクトルール" sheetId="3" r:id="rId3"/>
     <sheet name="プロジェクト管理" sheetId="4" r:id="rId4"/>
-    <sheet name="選択項目" sheetId="5" r:id="rId5"/>
+    <sheet name="進捗度" sheetId="6" r:id="rId5"/>
+    <sheet name="選択項目" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="スライサー_ステータス">#N/A</definedName>
@@ -31,9 +32,9 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
       <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicerCache r:id="rId6"/>
         <x14:slicerCache r:id="rId7"/>
         <x14:slicerCache r:id="rId8"/>
+        <x14:slicerCache r:id="rId9"/>
       </x15:slicerCaches>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="92">
   <si>
     <t>服装管理アプリ作成プロジェクト</t>
     <rPh sb="0" eb="2">
@@ -736,19 +737,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>6/16に質問することで解決する予定</t>
-    <rPh sb="5" eb="7">
-      <t>シツモン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カイケツ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヨテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>dao,model２セット終わってない</t>
     <rPh sb="13" eb="14">
       <t>オ</t>
@@ -773,14 +761,6 @@
     <rPh sb="0" eb="3">
       <t>モンダイテン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>外部設計書 　　　　　　　完成度
-　画面遷移図　　　　　　　100%
-　外部設計書                        20%
-　各グループの画面毎　　    30%
-　DB設計書　　　　　　　　100%</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -812,6 +792,51 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>JSPへの出力はまだできていない</t>
+    <rPh sb="5" eb="7">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボタン作成</t>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>JSONから無理やりデータをHTMLにしゅつ</t>
+    <rPh sb="6" eb="8">
+      <t>ムリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全体進捗：35％</t>
+  </si>
+  <si>
+    <t>各画面進捗：サーブレット、dao、model（CSS,JSは除く）</t>
+  </si>
+  <si>
+    <t>ログイン画面：100％</t>
+  </si>
+  <si>
+    <t>ユーザー登録画面：80％</t>
+  </si>
+  <si>
+    <t>履歴検索画面：80％</t>
+  </si>
+  <si>
+    <t>プロフィール画面：70％</t>
+  </si>
+  <si>
+    <t>メイン画面：55％</t>
+  </si>
+  <si>
+    <t>それ以外：50％</t>
+  </si>
 </sst>
 </file>
 
@@ -822,7 +847,7 @@
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode=";;;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -879,6 +904,12 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1029,7 +1060,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1111,8 +1142,11 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1246,7 +1280,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1317,7 +1351,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1365,7 +1399,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1464,7 +1498,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1789,19 +1823,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4181,11 +4215,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE037D95-2C6F-4C1A-BF41-FD6595FF0199}">
   <dimension ref="B1:AR203"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="12" ySplit="4" topLeftCell="M13" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="12" ySplit="4" topLeftCell="M21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4221,9 +4255,7 @@
       </c>
     </row>
     <row r="2" spans="2:44" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I2" s="27" t="s">
-        <v>80</v>
-      </c>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="2:44" x14ac:dyDescent="0.4">
       <c r="N3" s="18" t="str">
@@ -4362,7 +4394,7 @@
         <v>30</v>
       </c>
       <c r="I4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J4" t="s">
         <v>29</v>
@@ -5700,7 +5732,7 @@
         <v>0</v>
       </c>
       <c r="U13" s="26">
-        <f t="shared" ref="U13:AJ28" si="3">IF(U$4&gt;=$L13+2,3,IF($L13+1=U$4,2,IF(AND($K13&lt;=U$4,U$4&lt;=$L13),1,0)))</f>
+        <f t="shared" ref="U13:AJ24" si="3">IF(U$4&gt;=$L13+2,3,IF($L13+1=U$4,2,IF(AND($K13&lt;=U$4,U$4&lt;=$L13),1,0)))</f>
         <v>0</v>
       </c>
       <c r="V13" s="26">
@@ -5764,7 +5796,7 @@
         <v>3</v>
       </c>
       <c r="AK13" s="26">
-        <f t="shared" ref="AK13:AR28" si="4">IF(AK$4&gt;=$L13+2,3,IF($L13+1=AK$4,2,IF(AND($K13&lt;=AK$4,AK$4&lt;=$L13),1,0)))</f>
+        <f t="shared" ref="AK13:AR24" si="4">IF(AK$4&gt;=$L13+2,3,IF($L13+1=AK$4,2,IF(AND($K13&lt;=AK$4,AK$4&lt;=$L13),1,0)))</f>
         <v>3</v>
       </c>
       <c r="AL13" s="26">
@@ -5816,7 +5848,7 @@
         <v>45091</v>
       </c>
       <c r="N14" s="26">
-        <f t="shared" ref="N14:AC29" si="5">IF(N$4&gt;=$L14+2,3,IF($L14+1=N$4,2,IF(AND($K14&lt;=N$4,N$4&lt;=$L14),1,0)))</f>
+        <f t="shared" ref="N14:AC25" si="5">IF(N$4&gt;=$L14+2,3,IF($L14+1=N$4,2,IF(AND($K14&lt;=N$4,N$4&lt;=$L14),1,0)))</f>
         <v>0</v>
       </c>
       <c r="O14" s="26">
@@ -7535,10 +7567,10 @@
         <v>12</v>
       </c>
       <c r="I26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K26" s="23">
         <v>45093</v>
@@ -8402,7 +8434,7 @@
         <v>6</v>
       </c>
       <c r="I32" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J32" t="s">
         <v>35</v>
@@ -8549,7 +8581,7 @@
         <v>10</v>
       </c>
       <c r="I33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J33" t="s">
         <v>35</v>
@@ -8696,7 +8728,7 @@
         <v>8</v>
       </c>
       <c r="I34" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J34" t="s">
         <v>35</v>
@@ -8843,7 +8875,7 @@
         <v>4</v>
       </c>
       <c r="I35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J35" t="s">
         <v>35</v>
@@ -8990,7 +9022,7 @@
         <v>12</v>
       </c>
       <c r="I36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J36" t="s">
         <v>35</v>
@@ -9128,7 +9160,13 @@
     </row>
     <row r="37" spans="6:44" x14ac:dyDescent="0.4">
       <c r="G37" t="s">
-        <v>81</v>
+        <v>79</v>
+      </c>
+      <c r="H37" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" t="s">
+        <v>34</v>
       </c>
       <c r="K37" s="23">
         <v>45093</v>
@@ -9272,7 +9310,7 @@
         <v>6</v>
       </c>
       <c r="I38" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K38" s="23">
         <v>45096</v>
@@ -9416,7 +9454,7 @@
         <v>10</v>
       </c>
       <c r="I39" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K39" s="23">
         <v>45096</v>
@@ -9560,7 +9598,7 @@
         <v>8</v>
       </c>
       <c r="I40" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K40" s="23">
         <v>45096</v>
@@ -9704,7 +9742,7 @@
         <v>4</v>
       </c>
       <c r="I41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K41" s="23">
         <v>45096</v>
@@ -9848,7 +9886,7 @@
         <v>12</v>
       </c>
       <c r="I42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K42" s="23">
         <v>45096</v>
@@ -9857,7 +9895,7 @@
         <v>45097</v>
       </c>
       <c r="N42" s="26">
-        <f t="shared" ref="N42:AC105" si="9">IF(N$4&gt;=$L42+2,3,IF($L42+1=N$4,2,IF(AND($K42&lt;=N$4,N$4&lt;=$L42),1,0)))</f>
+        <f t="shared" ref="N42:AC57" si="9">IF(N$4&gt;=$L42+2,3,IF($L42+1=N$4,2,IF(AND($K42&lt;=N$4,N$4&lt;=$L42),1,0)))</f>
         <v>0</v>
       </c>
       <c r="O42" s="26">
@@ -9991,9 +10029,6 @@
       <c r="H43" t="s">
         <v>6</v>
       </c>
-      <c r="I43" t="s">
-        <v>76</v>
-      </c>
       <c r="K43" s="23">
         <v>45096</v>
       </c>
@@ -10421,7 +10456,7 @@
         <v>4</v>
       </c>
       <c r="I46" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="K46" s="23">
         <v>45096</v>
@@ -10849,6 +10884,9 @@
       <c r="H49" t="s">
         <v>10</v>
       </c>
+      <c r="I49" t="s">
+        <v>82</v>
+      </c>
       <c r="J49" t="s">
         <v>35</v>
       </c>
@@ -10923,7 +10961,7 @@
         <v>0</v>
       </c>
       <c r="AD49" s="26">
-        <f t="shared" ref="AD49:AR112" si="10">IF(AD$4&gt;=$L49+2,3,IF($L49+1=AD$4,2,IF(AND($K49&lt;=AD$4,AD$4&lt;=$L49),1,0)))</f>
+        <f t="shared" ref="AD49:AR66" si="10">IF(AD$4&gt;=$L49+2,3,IF($L49+1=AD$4,2,IF(AND($K49&lt;=AD$4,AD$4&lt;=$L49),1,0)))</f>
         <v>0</v>
       </c>
       <c r="AE49" s="26">
@@ -12041,7 +12079,7 @@
         <v>0</v>
       </c>
       <c r="AC57" s="26">
-        <f t="shared" ref="O57:AD120" si="11">IF(AC$4&gt;=$L57+2,3,IF($L57+1=AC$4,2,IF(AND($K57&lt;=AC$4,AC$4&lt;=$L57),1,0)))</f>
+        <f t="shared" ref="O57:AD79" si="11">IF(AC$4&gt;=$L57+2,3,IF($L57+1=AC$4,2,IF(AND($K57&lt;=AC$4,AC$4&lt;=$L57),1,0)))</f>
         <v>0</v>
       </c>
       <c r="AD57" s="26">
@@ -12119,7 +12157,7 @@
         <v>45104</v>
       </c>
       <c r="N58" s="26">
-        <f t="shared" ref="N58:AC121" si="12">IF(N$4&gt;=$L58+2,3,IF($L58+1=N$4,2,IF(AND($K58&lt;=N$4,N$4&lt;=$L58),1,0)))</f>
+        <f t="shared" ref="N58:AC88" si="12">IF(N$4&gt;=$L58+2,3,IF($L58+1=N$4,2,IF(AND($K58&lt;=N$4,N$4&lt;=$L58),1,0)))</f>
         <v>0</v>
       </c>
       <c r="O58" s="26">
@@ -13323,7 +13361,7 @@
         <v>0</v>
       </c>
       <c r="AJ66" s="26">
-        <f t="shared" ref="AJ66:AR129" si="13">IF(AJ$4&gt;=$L66+2,3,IF($L66+1=AJ$4,2,IF(AND($K66&lt;=AJ$4,AJ$4&lt;=$L66),1,0)))</f>
+        <f t="shared" ref="AJ66:AR66" si="13">IF(AJ$4&gt;=$L66+2,3,IF($L66+1=AJ$4,2,IF(AND($K66&lt;=AJ$4,AJ$4&lt;=$L66),1,0)))</f>
         <v>0</v>
       </c>
       <c r="AK66" s="26">
@@ -13444,7 +13482,7 @@
         <v>0</v>
       </c>
       <c r="AE67" s="26">
-        <f t="shared" ref="AD67:AR130" si="14">IF(AE$4&gt;=$L67+2,3,IF($L67+1=AE$4,2,IF(AND($K67&lt;=AE$4,AE$4&lt;=$L67),1,0)))</f>
+        <f t="shared" ref="AD67:AR86" si="14">IF(AE$4&gt;=$L67+2,3,IF($L67+1=AE$4,2,IF(AND($K67&lt;=AE$4,AE$4&lt;=$L67),1,0)))</f>
         <v>0</v>
       </c>
       <c r="AF67" s="26">
@@ -15062,7 +15100,7 @@
         <v>3</v>
       </c>
       <c r="AC79" s="26">
-        <f t="shared" ref="AC79:AR142" si="15">IF(AC$4&gt;=$L79+2,3,IF($L79+1=AC$4,2,IF(AND($K79&lt;=AC$4,AC$4&lt;=$L79),1,0)))</f>
+        <f t="shared" ref="AC79:AR80" si="15">IF(AC$4&gt;=$L79+2,3,IF($L79+1=AC$4,2,IF(AND($K79&lt;=AC$4,AC$4&lt;=$L79),1,0)))</f>
         <v>3</v>
       </c>
       <c r="AD79" s="26">
@@ -15984,7 +16022,7 @@
         <v>3</v>
       </c>
       <c r="AM86" s="26">
-        <f t="shared" ref="AM86:AR149" si="16">IF(AM$4&gt;=$L86+2,3,IF($L86+1=AM$4,2,IF(AND($K86&lt;=AM$4,AM$4&lt;=$L86),1,0)))</f>
+        <f t="shared" ref="AM86:AR86" si="16">IF(AM$4&gt;=$L86+2,3,IF($L86+1=AM$4,2,IF(AND($K86&lt;=AM$4,AM$4&lt;=$L86),1,0)))</f>
         <v>3</v>
       </c>
       <c r="AN86" s="26">
@@ -16074,7 +16112,7 @@
         <v>3</v>
       </c>
       <c r="AD87" s="26">
-        <f t="shared" ref="AD87:AR150" si="17">IF(AD$4&gt;=$L87+2,3,IF($L87+1=AD$4,2,IF(AND($K87&lt;=AD$4,AD$4&lt;=$L87),1,0)))</f>
+        <f t="shared" ref="AD87:AR87" si="17">IF(AD$4&gt;=$L87+2,3,IF($L87+1=AD$4,2,IF(AND($K87&lt;=AD$4,AD$4&lt;=$L87),1,0)))</f>
         <v>3</v>
       </c>
       <c r="AE87" s="26">
@@ -16196,7 +16234,7 @@
         <v>3</v>
       </c>
       <c r="AC88" s="26">
-        <f t="shared" ref="AC88:AR151" si="18">IF(AC$4&gt;=$L88+2,3,IF($L88+1=AC$4,2,IF(AND($K88&lt;=AC$4,AC$4&lt;=$L88),1,0)))</f>
+        <f t="shared" ref="AC88:AR105" si="18">IF(AC$4&gt;=$L88+2,3,IF($L88+1=AC$4,2,IF(AND($K88&lt;=AC$4,AC$4&lt;=$L88),1,0)))</f>
         <v>3</v>
       </c>
       <c r="AD88" s="26">
@@ -16262,7 +16300,7 @@
     </row>
     <row r="89" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N89" s="26">
-        <f t="shared" ref="N89:AC152" si="19">IF(N$4&gt;=$L89+2,3,IF($L89+1=N$4,2,IF(AND($K89&lt;=N$4,N$4&lt;=$L89),1,0)))</f>
+        <f t="shared" ref="N89:AC104" si="19">IF(N$4&gt;=$L89+2,3,IF($L89+1=N$4,2,IF(AND($K89&lt;=N$4,N$4&lt;=$L89),1,0)))</f>
         <v>3</v>
       </c>
       <c r="O89" s="26">
@@ -18212,7 +18250,7 @@
         <v>3</v>
       </c>
       <c r="AC104" s="26">
-        <f t="shared" ref="AC104:AR167" si="20">IF(AC$4&gt;=$L104+2,3,IF($L104+1=AC$4,2,IF(AND($K104&lt;=AC$4,AC$4&lt;=$L104),1,0)))</f>
+        <f t="shared" ref="AC104:AR121" si="20">IF(AC$4&gt;=$L104+2,3,IF($L104+1=AC$4,2,IF(AND($K104&lt;=AC$4,AC$4&lt;=$L104),1,0)))</f>
         <v>3</v>
       </c>
       <c r="AD104" s="26">
@@ -18278,7 +18316,7 @@
     </row>
     <row r="105" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N105" s="26">
-        <f t="shared" ref="N105:AC168" si="21">IF(N$4&gt;=$L105+2,3,IF($L105+1=N$4,2,IF(AND($K105&lt;=N$4,N$4&lt;=$L105),1,0)))</f>
+        <f t="shared" ref="N105:AC120" si="21">IF(N$4&gt;=$L105+2,3,IF($L105+1=N$4,2,IF(AND($K105&lt;=N$4,N$4&lt;=$L105),1,0)))</f>
         <v>3</v>
       </c>
       <c r="O105" s="26">
@@ -20228,7 +20266,7 @@
         <v>3</v>
       </c>
       <c r="AC120" s="26">
-        <f t="shared" ref="N120:AC183" si="22">IF(AC$4&gt;=$L120+2,3,IF($L120+1=AC$4,2,IF(AND($K120&lt;=AC$4,AC$4&lt;=$L120),1,0)))</f>
+        <f t="shared" ref="N120:AC152" si="22">IF(AC$4&gt;=$L120+2,3,IF($L120+1=AC$4,2,IF(AND($K120&lt;=AC$4,AC$4&lt;=$L120),1,0)))</f>
         <v>3</v>
       </c>
       <c r="AD120" s="26">
@@ -20294,7 +20332,7 @@
     </row>
     <row r="121" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N121" s="26">
-        <f t="shared" ref="N121:AC184" si="23">IF(N$4&gt;=$L121+2,3,IF($L121+1=N$4,2,IF(AND($K121&lt;=N$4,N$4&lt;=$L121),1,0)))</f>
+        <f t="shared" ref="N121:AC140" si="23">IF(N$4&gt;=$L121+2,3,IF($L121+1=N$4,2,IF(AND($K121&lt;=N$4,N$4&lt;=$L121),1,0)))</f>
         <v>3</v>
       </c>
       <c r="O121" s="26">
@@ -20410,7 +20448,7 @@
         <v>3</v>
       </c>
       <c r="AQ121" s="26">
-        <f t="shared" ref="AQ121:AR184" si="24">IF(AQ$4&gt;=$L121+2,3,IF($L121+1=AQ$4,2,IF(AND($K121&lt;=AQ$4,AQ$4&lt;=$L121),1,0)))</f>
+        <f t="shared" ref="AQ121:AR121" si="24">IF(AQ$4&gt;=$L121+2,3,IF($L121+1=AQ$4,2,IF(AND($K121&lt;=AQ$4,AQ$4&lt;=$L121),1,0)))</f>
         <v>3</v>
       </c>
       <c r="AR121" s="26">
@@ -20484,7 +20522,7 @@
         <v>3</v>
       </c>
       <c r="AD122" s="26">
-        <f t="shared" ref="AD122:AR185" si="25">IF(AD$4&gt;=$L122+2,3,IF($L122+1=AD$4,2,IF(AND($K122&lt;=AD$4,AD$4&lt;=$L122),1,0)))</f>
+        <f t="shared" ref="AD122:AR138" si="25">IF(AD$4&gt;=$L122+2,3,IF($L122+1=AD$4,2,IF(AND($K122&lt;=AD$4,AD$4&lt;=$L122),1,0)))</f>
         <v>3</v>
       </c>
       <c r="AE122" s="26">
@@ -22626,7 +22664,7 @@
         <v>3</v>
       </c>
       <c r="AD139" s="26">
-        <f t="shared" ref="AD139:AR202" si="26">IF(AD$4&gt;=$L139+2,3,IF($L139+1=AD$4,2,IF(AND($K139&lt;=AD$4,AD$4&lt;=$L139),1,0)))</f>
+        <f t="shared" ref="AD139:AR158" si="26">IF(AD$4&gt;=$L139+2,3,IF($L139+1=AD$4,2,IF(AND($K139&lt;=AD$4,AD$4&lt;=$L139),1,0)))</f>
         <v>3</v>
       </c>
       <c r="AE139" s="26">
@@ -22744,7 +22782,7 @@
         <v>3</v>
       </c>
       <c r="AB140" s="26">
-        <f t="shared" ref="AB140:AQ203" si="27">IF(AB$4&gt;=$L140+2,3,IF($L140+1=AB$4,2,IF(AND($K140&lt;=AB$4,AB$4&lt;=$L140),1,0)))</f>
+        <f t="shared" ref="AB140:AQ141" si="27">IF(AB$4&gt;=$L140+2,3,IF($L140+1=AB$4,2,IF(AND($K140&lt;=AB$4,AB$4&lt;=$L140),1,0)))</f>
         <v>3</v>
       </c>
       <c r="AC140" s="26">
@@ -24260,7 +24298,7 @@
         <v>3</v>
       </c>
       <c r="AC152" s="26">
-        <f t="shared" ref="AC152:AR203" si="28">IF(AC$4&gt;=$L152+2,3,IF($L152+1=AC$4,2,IF(AND($K152&lt;=AC$4,AC$4&lt;=$L152),1,0)))</f>
+        <f t="shared" ref="AC152:AR152" si="28">IF(AC$4&gt;=$L152+2,3,IF($L152+1=AC$4,2,IF(AND($K152&lt;=AC$4,AC$4&lt;=$L152),1,0)))</f>
         <v>3</v>
       </c>
       <c r="AD152" s="26">
@@ -24326,7 +24364,7 @@
     </row>
     <row r="153" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N153" s="26">
-        <f t="shared" ref="N153:AC203" si="29">IF(N$4&gt;=$L153+2,3,IF($L153+1=N$4,2,IF(AND($K153&lt;=N$4,N$4&lt;=$L153),1,0)))</f>
+        <f t="shared" ref="N153:AC168" si="29">IF(N$4&gt;=$L153+2,3,IF($L153+1=N$4,2,IF(AND($K153&lt;=N$4,N$4&lt;=$L153),1,0)))</f>
         <v>3</v>
       </c>
       <c r="O153" s="26">
@@ -25072,7 +25110,7 @@
         <v>3</v>
       </c>
       <c r="AQ158" s="26">
-        <f t="shared" ref="AQ158:AR203" si="30">IF(AQ$4&gt;=$L158+2,3,IF($L158+1=AQ$4,2,IF(AND($K158&lt;=AQ$4,AQ$4&lt;=$L158),1,0)))</f>
+        <f t="shared" ref="AQ158:AR158" si="30">IF(AQ$4&gt;=$L158+2,3,IF($L158+1=AQ$4,2,IF(AND($K158&lt;=AQ$4,AQ$4&lt;=$L158),1,0)))</f>
         <v>3</v>
       </c>
       <c r="AR158" s="26">
@@ -25146,7 +25184,7 @@
         <v>3</v>
       </c>
       <c r="AD159" s="26">
-        <f t="shared" ref="AD159:AR203" si="31">IF(AD$4&gt;=$L159+2,3,IF($L159+1=AD$4,2,IF(AND($K159&lt;=AD$4,AD$4&lt;=$L159),1,0)))</f>
+        <f t="shared" ref="AD159:AR175" si="31">IF(AD$4&gt;=$L159+2,3,IF($L159+1=AD$4,2,IF(AND($K159&lt;=AD$4,AD$4&lt;=$L159),1,0)))</f>
         <v>3</v>
       </c>
       <c r="AE159" s="26">
@@ -26342,7 +26380,7 @@
     </row>
     <row r="169" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N169" s="26">
-        <f t="shared" ref="N169:AC203" si="33">IF(N$4&gt;=$L169+2,3,IF($L169+1=N$4,2,IF(AND($K169&lt;=N$4,N$4&lt;=$L169),1,0)))</f>
+        <f t="shared" ref="N169:AC188" si="33">IF(N$4&gt;=$L169+2,3,IF($L169+1=N$4,2,IF(AND($K169&lt;=N$4,N$4&lt;=$L169),1,0)))</f>
         <v>3</v>
       </c>
       <c r="O169" s="26">
@@ -27288,7 +27326,7 @@
         <v>3</v>
       </c>
       <c r="AD176" s="26">
-        <f t="shared" ref="AD176:AR203" si="34">IF(AD$4&gt;=$L176+2,3,IF($L176+1=AD$4,2,IF(AND($K176&lt;=AD$4,AD$4&lt;=$L176),1,0)))</f>
+        <f t="shared" ref="AD176:AR193" si="34">IF(AD$4&gt;=$L176+2,3,IF($L176+1=AD$4,2,IF(AND($K176&lt;=AD$4,AD$4&lt;=$L176),1,0)))</f>
         <v>3</v>
       </c>
       <c r="AE176" s="26">
@@ -28792,7 +28830,7 @@
         <v>3</v>
       </c>
       <c r="AB188" s="26">
-        <f t="shared" ref="AB188:AQ203" si="35">IF(AB$4&gt;=$L188+2,3,IF($L188+1=AB$4,2,IF(AND($K188&lt;=AB$4,AB$4&lt;=$L188),1,0)))</f>
+        <f t="shared" ref="AB188:AQ188" si="35">IF(AB$4&gt;=$L188+2,3,IF($L188+1=AB$4,2,IF(AND($K188&lt;=AB$4,AB$4&lt;=$L188),1,0)))</f>
         <v>3</v>
       </c>
       <c r="AC188" s="26">
@@ -29486,7 +29524,7 @@
         <v>3</v>
       </c>
       <c r="AR193" s="26">
-        <f t="shared" ref="O193:AR203" si="36">IF(AR$4&gt;=$L193+2,3,IF($L193+1=AR$4,2,IF(AND($K193&lt;=AR$4,AR$4&lt;=$L193),1,0)))</f>
+        <f t="shared" ref="O193:AR202" si="36">IF(AR$4&gt;=$L193+2,3,IF($L193+1=AR$4,2,IF(AND($K193&lt;=AR$4,AR$4&lt;=$L193),1,0)))</f>
         <v>3</v>
       </c>
     </row>
@@ -30797,7 +30835,7 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D650CD56-D54F-4874-A568-6F7CE562F846}">
           <x14:formula1>
             <xm:f>選択項目!$E$3:$E$6</xm:f>
@@ -30822,6 +30860,62 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA4B32BC-6AFD-4A83-AE03-9056213DAF6D}">
+  <dimension ref="B2:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B2:B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B2" s="28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B3" s="28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B4" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B5" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B6" s="28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B7" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B8" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B9" s="28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14858EA2-B585-484A-A932-A0F07DCE98A0}">
   <dimension ref="C3:M8"/>
   <sheetViews>
@@ -30863,15 +30957,15 @@
       </c>
       <c r="I4">
         <f>COUNTIF(テーブル1[ステータス],"完了")</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J4">
         <f>COUNTIF(テーブル1[ステータス],"着手中")</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K4">
         <f>COUNTIF(テーブル1[ステータス],"遅延")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
         <f>COUNTIF(テーブル1[ステータス],"大幅遅延（ヘルプ）")</f>
@@ -30879,7 +30973,7 @@
       </c>
       <c r="M4">
         <f>COUNTA(テーブル1[タスク])-I6</f>
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="3:13" x14ac:dyDescent="0.4">
@@ -30899,7 +30993,7 @@
       </c>
       <c r="I6">
         <f>I4+J4+K4+L4</f>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="3:13" x14ac:dyDescent="0.4">

--- a/doc/PJ管理.xlsx
+++ b/doc/PJ管理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B076E5-6FB9-4FC8-A37E-231F402A360B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B900755-B925-4910-8A7C-25D216A50D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="15600" activeTab="3" xr2:uid="{18759526-B486-4F50-90B4-3DA4ED19388F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="4" xr2:uid="{18759526-B486-4F50-90B4-3DA4ED19388F}"/>
   </bookViews>
   <sheets>
     <sheet name="プロジェクト体制" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="94">
   <si>
     <t>服装管理アプリ作成プロジェクト</t>
     <rPh sb="0" eb="2">
@@ -723,13 +723,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>JSONからデータ取得できてない</t>
-    <rPh sb="9" eb="11">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ボタンのCSSがまだ途中</t>
     <rPh sb="10" eb="12">
       <t>トチュウ</t>
@@ -757,45 +750,9 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>問題点</t>
-    <rPh sb="0" eb="3">
-      <t>モンダイテン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ログアウトサーブレット作成</t>
     <rPh sb="11" eb="13">
       <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>各担当画面の作成1日２画面</t>
-    <rPh sb="0" eb="1">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>タントウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>JSPへの出力はまだできていない</t>
-    <rPh sb="5" eb="7">
-      <t>シュツリョク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -807,35 +764,136 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>JSONから無理やりデータをHTMLにしゅつ</t>
-    <rPh sb="6" eb="8">
-      <t>ムリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>全体進捗：35％</t>
-  </si>
-  <si>
     <t>各画面進捗：サーブレット、dao、model（CSS,JSは除く）</t>
   </si>
   <si>
     <t>ログイン画面：100％</t>
   </si>
   <si>
-    <t>ユーザー登録画面：80％</t>
-  </si>
-  <si>
     <t>履歴検索画面：80％</t>
   </si>
   <si>
-    <t>プロフィール画面：70％</t>
+    <t>それ以外：50％</t>
   </si>
   <si>
-    <t>メイン画面：55％</t>
+    <t>メモ</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>それ以外：50％</t>
+    <t>JSONから無理やりデータをHTMLに出力できた</t>
+    <rPh sb="6" eb="8">
+      <t>ムリ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SQLの結合がまだできていない</t>
+    <rPh sb="4" eb="6">
+      <t>ケツゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>都道府県と性別の数字を変更する</t>
+    <rPh sb="0" eb="4">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>編集と編集確認６０％くらい</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>天気の部分のサーブレット着手中</t>
+    <rPh sb="0" eb="2">
+      <t>テンキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>チャクシュ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全体進捗：45％</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>編集画面：60%</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プロフィール画面：80％</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メイン画面:95％</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ユーザー登録画面：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>85</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>％</t>
+    </r>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -847,7 +905,7 @@
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode=";;;"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -910,6 +968,27 @@
       <color rgb="FF1D1C1D"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1060,7 +1139,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1142,10 +1221,19 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1280,7 +1368,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>27</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1351,7 +1439,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1399,7 +1487,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1823,13 +1911,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>27</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -3577,8 +3665,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>884464</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
@@ -3702,7 +3790,7 @@
     <tableColumn id="1" xr3:uid="{C897A548-63EF-43A3-92C2-77D1D598E6A6}" name="項目"/>
     <tableColumn id="2" xr3:uid="{7F8C0CCC-259E-468B-9638-2C5B6FF1AC1E}" name="タスク"/>
     <tableColumn id="3" xr3:uid="{C3D71DA9-35AF-40DD-A2D0-94EA2837F29D}" name="担当者"/>
-    <tableColumn id="4" xr3:uid="{854EC6E2-A28A-4C47-92AF-BA3A3C459B10}" name="問題点"/>
+    <tableColumn id="4" xr3:uid="{854EC6E2-A28A-4C47-92AF-BA3A3C459B10}" name="メモ"/>
     <tableColumn id="5" xr3:uid="{0AA9A3DC-19A8-442D-872E-9A3B8AAA02F3}" name="ステータス"/>
     <tableColumn id="6" xr3:uid="{B709BD93-CD36-401C-AB99-3DB042D3D9D3}" name="予定開始日"/>
     <tableColumn id="7" xr3:uid="{9ACF9A14-C476-47C9-9A3F-9C6745CC4D22}" name="予定終了日"/>
@@ -4215,11 +4303,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE037D95-2C6F-4C1A-BF41-FD6595FF0199}">
   <dimension ref="B1:AR203"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="12" ySplit="4" topLeftCell="M21" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="12" ySplit="4" topLeftCell="M33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomRight" activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4232,7 +4320,7 @@
     <col min="6" max="6" width="18.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" customWidth="1"/>
-    <col min="9" max="9" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.25" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="18.375" customWidth="1"/>
     <col min="13" max="13" width="4.375" customWidth="1"/>
@@ -4394,7 +4482,7 @@
         <v>30</v>
       </c>
       <c r="I4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J4" t="s">
         <v>29</v>
@@ -7567,10 +7655,10 @@
         <v>12</v>
       </c>
       <c r="I26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K26" s="23">
         <v>45093</v>
@@ -8433,11 +8521,8 @@
       <c r="H32" t="s">
         <v>6</v>
       </c>
-      <c r="I32" t="s">
-        <v>81</v>
-      </c>
       <c r="J32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K32" s="23">
         <v>45093</v>
@@ -8580,11 +8665,8 @@
       <c r="H33" t="s">
         <v>10</v>
       </c>
-      <c r="I33" t="s">
-        <v>77</v>
-      </c>
       <c r="J33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K33" s="23">
         <v>45093</v>
@@ -8727,11 +8809,8 @@
       <c r="H34" t="s">
         <v>8</v>
       </c>
-      <c r="I34" t="s">
-        <v>81</v>
-      </c>
       <c r="J34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K34" s="23">
         <v>45093</v>
@@ -8874,11 +8953,8 @@
       <c r="H35" t="s">
         <v>4</v>
       </c>
-      <c r="I35" t="s">
-        <v>77</v>
-      </c>
       <c r="J35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K35" s="23">
         <v>45093</v>
@@ -9021,11 +9097,8 @@
       <c r="H36" t="s">
         <v>12</v>
       </c>
-      <c r="I36" t="s">
-        <v>77</v>
-      </c>
       <c r="J36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K36" s="23">
         <v>45093</v>
@@ -9160,7 +9233,7 @@
     </row>
     <row r="37" spans="6:44" x14ac:dyDescent="0.4">
       <c r="G37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H37" t="s">
         <v>12</v>
@@ -9310,7 +9383,7 @@
         <v>6</v>
       </c>
       <c r="I38" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K38" s="23">
         <v>45096</v>
@@ -9454,7 +9527,7 @@
         <v>10</v>
       </c>
       <c r="I39" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K39" s="23">
         <v>45096</v>
@@ -9598,7 +9671,7 @@
         <v>8</v>
       </c>
       <c r="I40" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="K40" s="23">
         <v>45096</v>
@@ -9742,7 +9815,7 @@
         <v>4</v>
       </c>
       <c r="I41" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K41" s="23">
         <v>45096</v>
@@ -9886,7 +9959,7 @@
         <v>12</v>
       </c>
       <c r="I42" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K42" s="23">
         <v>45096</v>
@@ -10171,7 +10244,7 @@
         <v>10</v>
       </c>
       <c r="I44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K44" s="23">
         <v>45096</v>
@@ -10456,7 +10529,7 @@
         <v>4</v>
       </c>
       <c r="I46" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K46" s="23">
         <v>45096</v>
@@ -10599,9 +10672,6 @@
       <c r="H47" t="s">
         <v>12</v>
       </c>
-      <c r="I47" t="s">
-        <v>74</v>
-      </c>
       <c r="K47" s="23">
         <v>45096</v>
       </c>
@@ -10885,7 +10955,7 @@
         <v>10</v>
       </c>
       <c r="I49" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J49" t="s">
         <v>35</v>
@@ -30861,52 +30931,60 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA4B32BC-6AFD-4A83-AE03-9056213DAF6D}">
-  <dimension ref="B2:B9"/>
+  <dimension ref="B2:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B2:B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="58.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B2" s="28" t="s">
-        <v>84</v>
+      <c r="B2" s="29" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B3" s="28" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B4" s="28" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B5" s="28" t="s">
-        <v>87</v>
+      <c r="B5" s="31" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B6" s="28" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B7" s="28" t="s">
-        <v>89</v>
+      <c r="B7" s="29" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="30" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B9" s="28" t="s">
-        <v>91</v>
+      <c r="B9" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B10" s="28" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -30957,15 +31035,15 @@
       </c>
       <c r="I4">
         <f>COUNTIF(テーブル1[ステータス],"完了")</f>
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J4">
         <f>COUNTIF(テーブル1[ステータス],"着手中")</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K4">
         <f>COUNTIF(テーブル1[ステータス],"遅延")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <f>COUNTIF(テーブル1[ステータス],"大幅遅延（ヘルプ）")</f>

--- a/doc/PJ管理.xlsx
+++ b/doc/PJ管理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE98531-5DAE-42B0-9EFB-771CC731E975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A362E11-B2A7-4165-A507-10B748F95A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5535" yWindow="0" windowWidth="32865" windowHeight="15480" activeTab="3" xr2:uid="{18759526-B486-4F50-90B4-3DA4ED19388F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="3" xr2:uid="{18759526-B486-4F50-90B4-3DA4ED19388F}"/>
   </bookViews>
   <sheets>
     <sheet name="プロジェクト体制" sheetId="1" r:id="rId1"/>
@@ -737,19 +737,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログインとユーザ登録画面の完成</t>
-    <rPh sb="8" eb="10">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カンセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ログアウトサーブレット作成</t>
     <rPh sb="11" eb="13">
       <t>サクセイ</t>
@@ -770,9 +757,6 @@
     <t>ログイン画面：100％</t>
   </si>
   <si>
-    <t>履歴検索画面：80％</t>
-  </si>
-  <si>
     <t>それ以外：50％</t>
   </si>
   <si>
@@ -786,29 +770,6 @@
     </rPh>
     <rPh sb="19" eb="21">
       <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SQLの結合がまだできていない</t>
-    <rPh sb="4" eb="6">
-      <t>ケツゴウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>都道府県と性別の数字を変更する</t>
-    <rPh sb="0" eb="4">
-      <t>トドウフケン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>セイベツ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>スウジ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -842,10 +803,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>全体進捗：45％</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>編集画面：60%</t>
     <rPh sb="0" eb="2">
       <t>ヘンシュウ</t>
@@ -856,43 +813,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>プロフィール画面：80％</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>メイン画面:95％</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1D1C1D"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ユーザー登録画面：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1D1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>85</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1D1C1D"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>％</t>
-    </r>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -974,6 +895,109 @@
     <rPh sb="3" eb="5">
       <t>ガメン</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プロフィールの編集画面のプルダウンは完成
+登録するところがまだできてない</t>
+    <rPh sb="7" eb="9">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>居住地のプルダウの表示完了
+確認画面のところで、暑がり寒がりがまだできていない</t>
+    <rPh sb="0" eb="3">
+      <t>キョジュウチ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>サム</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>暑がり寒がり指数繁栄</t>
+    <rPh sb="0" eb="1">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サム</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シスウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全体進捗：50％</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザー登録画面：95％</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>履歴検索画面：6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>％</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プロフィール画面：95％</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1220,7 +1244,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1316,6 +1340,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1456,7 +1483,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>33</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1527,7 +1554,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1999,10 +2026,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>33</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4391,11 +4418,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE037D95-2C6F-4C1A-BF41-FD6595FF0199}">
   <dimension ref="B1:AR208"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="12" ySplit="4" topLeftCell="M25" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <pane xSplit="12" ySplit="4" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J43" sqref="J43"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4570,7 +4597,7 @@
         <v>30</v>
       </c>
       <c r="I4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J4" t="s">
         <v>29</v>
@@ -8827,7 +8854,7 @@
         <v>1</v>
       </c>
       <c r="AD33" s="26">
-        <f t="shared" ref="AD33:AR53" si="8">IF(AD$4&gt;=$L33+2,3,IF($L33+1=AD$4,2,IF(AND($K33&lt;=AD$4,AD$4&lt;=$L33),1,0)))</f>
+        <f t="shared" ref="AD33:AR38" si="8">IF(AD$4&gt;=$L33+2,3,IF($L33+1=AD$4,2,IF(AND($K33&lt;=AD$4,AD$4&lt;=$L33),1,0)))</f>
         <v>2</v>
       </c>
       <c r="AE33" s="26">
@@ -9324,7 +9351,7 @@
         <v>33</v>
       </c>
       <c r="G37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H37" t="s">
         <v>12</v>
@@ -9463,18 +9490,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="6:44" x14ac:dyDescent="0.4">
+    <row r="38" spans="6:44" ht="56.25" x14ac:dyDescent="0.4">
       <c r="F38" t="s">
         <v>33</v>
       </c>
       <c r="G38" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H38" t="s">
         <v>6</v>
       </c>
-      <c r="I38" t="s">
-        <v>85</v>
+      <c r="I38" s="32" t="s">
+        <v>97</v>
       </c>
       <c r="J38" t="s">
         <v>35</v>
@@ -9610,18 +9637,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="6:44" x14ac:dyDescent="0.4">
+    <row r="39" spans="6:44" ht="37.5" x14ac:dyDescent="0.4">
       <c r="F39" t="s">
         <v>33</v>
       </c>
       <c r="G39" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s">
         <v>10</v>
       </c>
-      <c r="I39" t="s">
-        <v>86</v>
+      <c r="I39" s="32" t="s">
+        <v>96</v>
       </c>
       <c r="J39" t="s">
         <v>35</v>
@@ -9697,7 +9724,7 @@
         <v>0</v>
       </c>
       <c r="AD39" s="26">
-        <f t="shared" ref="AD39:AR102" si="9">IF(AD$4&gt;=$L39+2,3,IF($L39+1=AD$4,2,IF(AND($K39&lt;=AD$4,AD$4&lt;=$L39),1,0)))</f>
+        <f t="shared" ref="AD39:AR55" si="9">IF(AD$4&gt;=$L39+2,3,IF($L39+1=AD$4,2,IF(AND($K39&lt;=AD$4,AD$4&lt;=$L39),1,0)))</f>
         <v>0</v>
       </c>
       <c r="AE39" s="26">
@@ -9762,13 +9789,13 @@
         <v>33</v>
       </c>
       <c r="G40" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H40" t="s">
         <v>8</v>
       </c>
       <c r="I40" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J40" t="s">
         <v>35</v>
@@ -9909,13 +9936,13 @@
         <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="H41" t="s">
         <v>4</v>
       </c>
       <c r="I41" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="J41" t="s">
         <v>35</v>
@@ -10056,16 +10083,16 @@
         <v>33</v>
       </c>
       <c r="G42" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="H42" t="s">
         <v>12</v>
       </c>
       <c r="I42" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K42" s="23">
         <v>45096</v>
@@ -10074,7 +10101,7 @@
         <v>45097</v>
       </c>
       <c r="N42" s="26">
-        <f t="shared" ref="N42:AC105" si="10">IF(N$4&gt;=$L42+2,3,IF($L42+1=N$4,2,IF(AND($K42&lt;=N$4,N$4&lt;=$L42),1,0)))</f>
+        <f t="shared" ref="N42:AC57" si="10">IF(N$4&gt;=$L42+2,3,IF($L42+1=N$4,2,IF(AND($K42&lt;=N$4,N$4&lt;=$L42),1,0)))</f>
         <v>0</v>
       </c>
       <c r="O42" s="26">
@@ -10203,7 +10230,7 @@
         <v>33</v>
       </c>
       <c r="G43" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="H43" t="s">
         <v>6</v>
@@ -10344,7 +10371,7 @@
         <v>33</v>
       </c>
       <c r="G44" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="H44" t="s">
         <v>10</v>
@@ -10485,7 +10512,7 @@
         <v>33</v>
       </c>
       <c r="G45" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="H45" t="s">
         <v>8</v>
@@ -10626,7 +10653,7 @@
         <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="H46" t="s">
         <v>4</v>
@@ -10767,7 +10794,7 @@
         <v>33</v>
       </c>
       <c r="G47" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="H47" t="s">
         <v>12</v>
@@ -11340,7 +11367,7 @@
         <v>4</v>
       </c>
       <c r="I51" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K51" s="23">
         <v>45096</v>
@@ -11766,7 +11793,7 @@
         <v>10</v>
       </c>
       <c r="I54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J54" t="s">
         <v>35</v>
@@ -12130,7 +12157,7 @@
         <v>0</v>
       </c>
       <c r="AD56" s="26">
-        <f t="shared" ref="AD56:AR119" si="11">IF(AD$4&gt;=$L56+2,3,IF($L56+1=AD$4,2,IF(AND($K56&lt;=AD$4,AD$4&lt;=$L56),1,0)))</f>
+        <f t="shared" ref="AD56:AR72" si="11">IF(AD$4&gt;=$L56+2,3,IF($L56+1=AD$4,2,IF(AND($K56&lt;=AD$4,AD$4&lt;=$L56),1,0)))</f>
         <v>0</v>
       </c>
       <c r="AE56" s="26">
@@ -12267,7 +12294,7 @@
         <v>0</v>
       </c>
       <c r="AC57" s="26">
-        <f t="shared" ref="N57:AC120" si="12">IF(AC$4&gt;=$L57+2,3,IF($L57+1=AC$4,2,IF(AND($K57&lt;=AC$4,AC$4&lt;=$L57),1,0)))</f>
+        <f t="shared" ref="N57:AC73" si="12">IF(AC$4&gt;=$L57+2,3,IF($L57+1=AC$4,2,IF(AND($K57&lt;=AC$4,AC$4&lt;=$L57),1,0)))</f>
         <v>0</v>
       </c>
       <c r="AD57" s="26">
@@ -14492,7 +14519,7 @@
         <v>0</v>
       </c>
       <c r="AB73" s="26">
-        <f t="shared" ref="AB73:AQ136" si="13">IF(AB$4&gt;=$L73+2,3,IF($L73+1=AB$4,2,IF(AND($K73&lt;=AB$4,AB$4&lt;=$L73),1,0)))</f>
+        <f t="shared" ref="AB73:AQ73" si="13">IF(AB$4&gt;=$L73+2,3,IF($L73+1=AB$4,2,IF(AND($K73&lt;=AB$4,AB$4&lt;=$L73),1,0)))</f>
         <v>0</v>
       </c>
       <c r="AC73" s="26">
@@ -14556,7 +14583,7 @@
         <v>3</v>
       </c>
       <c r="AR73" s="26">
-        <f t="shared" ref="AD73:AR136" si="14">IF(AR$4&gt;=$L73+2,3,IF($L73+1=AR$4,2,IF(AND($K73&lt;=AR$4,AR$4&lt;=$L73),1,0)))</f>
+        <f t="shared" ref="AD73:AR90" si="14">IF(AR$4&gt;=$L73+2,3,IF($L73+1=AR$4,2,IF(AND($K73&lt;=AR$4,AR$4&lt;=$L73),1,0)))</f>
         <v>3</v>
       </c>
     </row>
@@ -14574,7 +14601,7 @@
         <v>45106</v>
       </c>
       <c r="N74" s="26">
-        <f t="shared" ref="N74:AC137" si="15">IF(N$4&gt;=$L74+2,3,IF($L74+1=N$4,2,IF(AND($K74&lt;=N$4,N$4&lt;=$L74),1,0)))</f>
+        <f t="shared" ref="N74:AC89" si="15">IF(N$4&gt;=$L74+2,3,IF($L74+1=N$4,2,IF(AND($K74&lt;=N$4,N$4&lt;=$L74),1,0)))</f>
         <v>0</v>
       </c>
       <c r="O74" s="26">
@@ -16611,7 +16638,7 @@
         <v>3</v>
       </c>
       <c r="AC89" s="26">
-        <f t="shared" ref="N89:AC152" si="16">IF(AC$4&gt;=$L89+2,3,IF($L89+1=AC$4,2,IF(AND($K89&lt;=AC$4,AC$4&lt;=$L89),1,0)))</f>
+        <f t="shared" ref="N89:AC105" si="16">IF(AC$4&gt;=$L89+2,3,IF($L89+1=AC$4,2,IF(AND($K89&lt;=AC$4,AC$4&lt;=$L89),1,0)))</f>
         <v>3</v>
       </c>
       <c r="AD89" s="26">
@@ -16797,7 +16824,7 @@
         <v>3</v>
       </c>
       <c r="AR90" s="26">
-        <f t="shared" ref="AD90:AR153" si="17">IF(AR$4&gt;=$L90+2,3,IF($L90+1=AR$4,2,IF(AND($K90&lt;=AR$4,AR$4&lt;=$L90),1,0)))</f>
+        <f t="shared" ref="AD90:AR107" si="17">IF(AR$4&gt;=$L90+2,3,IF($L90+1=AR$4,2,IF(AND($K90&lt;=AR$4,AR$4&lt;=$L90),1,0)))</f>
         <v>3</v>
       </c>
     </row>
@@ -18623,7 +18650,7 @@
         <v>3</v>
       </c>
       <c r="AB105" s="26">
-        <f t="shared" ref="N105:AC168" si="18">IF(AB$4&gt;=$L105+2,3,IF($L105+1=AB$4,2,IF(AND($K105&lt;=AB$4,AB$4&lt;=$L105),1,0)))</f>
+        <f t="shared" ref="N105:AC121" si="18">IF(AB$4&gt;=$L105+2,3,IF($L105+1=AB$4,2,IF(AND($K105&lt;=AB$4,AB$4&lt;=$L105),1,0)))</f>
         <v>3</v>
       </c>
       <c r="AC105" s="26">
@@ -18939,7 +18966,7 @@
         <v>3</v>
       </c>
       <c r="AR107" s="26">
-        <f t="shared" ref="AD107:AR170" si="19">IF(AR$4&gt;=$L107+2,3,IF($L107+1=AR$4,2,IF(AND($K107&lt;=AR$4,AR$4&lt;=$L107),1,0)))</f>
+        <f t="shared" ref="AD107:AR124" si="19">IF(AR$4&gt;=$L107+2,3,IF($L107+1=AR$4,2,IF(AND($K107&lt;=AR$4,AR$4&lt;=$L107),1,0)))</f>
         <v>3</v>
       </c>
     </row>
@@ -20635,7 +20662,7 @@
         <v>3</v>
       </c>
       <c r="AA121" s="26">
-        <f t="shared" ref="N121:AC184" si="20">IF(AA$4&gt;=$L121+2,3,IF($L121+1=AA$4,2,IF(AND($K121&lt;=AA$4,AA$4&lt;=$L121),1,0)))</f>
+        <f t="shared" ref="N121:AC137" si="20">IF(AA$4&gt;=$L121+2,3,IF($L121+1=AA$4,2,IF(AND($K121&lt;=AA$4,AA$4&lt;=$L121),1,0)))</f>
         <v>3</v>
       </c>
       <c r="AB121" s="26">
@@ -21081,7 +21108,7 @@
         <v>3</v>
       </c>
       <c r="AR124" s="26">
-        <f t="shared" ref="AD124:AR187" si="21">IF(AR$4&gt;=$L124+2,3,IF($L124+1=AR$4,2,IF(AND($K124&lt;=AR$4,AR$4&lt;=$L124),1,0)))</f>
+        <f t="shared" ref="AD124:AR141" si="21">IF(AR$4&gt;=$L124+2,3,IF($L124+1=AR$4,2,IF(AND($K124&lt;=AR$4,AR$4&lt;=$L124),1,0)))</f>
         <v>3</v>
       </c>
     </row>
@@ -22647,7 +22674,7 @@
         <v>3</v>
       </c>
       <c r="Z137" s="26">
-        <f t="shared" ref="N137:AC200" si="22">IF(Z$4&gt;=$L137+2,3,IF($L137+1=Z$4,2,IF(AND($K137&lt;=Z$4,Z$4&lt;=$L137),1,0)))</f>
+        <f t="shared" ref="N137:AC153" si="22">IF(Z$4&gt;=$L137+2,3,IF($L137+1=Z$4,2,IF(AND($K137&lt;=Z$4,Z$4&lt;=$L137),1,0)))</f>
         <v>3</v>
       </c>
       <c r="AA137" s="26">
@@ -23223,7 +23250,7 @@
         <v>3</v>
       </c>
       <c r="AR141" s="26">
-        <f t="shared" ref="AD141:AR204" si="23">IF(AR$4&gt;=$L141+2,3,IF($L141+1=AR$4,2,IF(AND($K141&lt;=AR$4,AR$4&lt;=$L141),1,0)))</f>
+        <f t="shared" ref="AD141:AR158" si="23">IF(AR$4&gt;=$L141+2,3,IF($L141+1=AR$4,2,IF(AND($K141&lt;=AR$4,AR$4&lt;=$L141),1,0)))</f>
         <v>3</v>
       </c>
     </row>
@@ -24659,7 +24686,7 @@
         <v>3</v>
       </c>
       <c r="Y153" s="26">
-        <f t="shared" ref="N153:AC207" si="24">IF(Y$4&gt;=$L153+2,3,IF($L153+1=Y$4,2,IF(AND($K153&lt;=Y$4,Y$4&lt;=$L153),1,0)))</f>
+        <f t="shared" ref="N153:AC169" si="24">IF(Y$4&gt;=$L153+2,3,IF($L153+1=Y$4,2,IF(AND($K153&lt;=Y$4,Y$4&lt;=$L153),1,0)))</f>
         <v>3</v>
       </c>
       <c r="Z153" s="26">
@@ -25365,7 +25392,7 @@
         <v>3</v>
       </c>
       <c r="AR158" s="26">
-        <f t="shared" ref="AD158:AR207" si="25">IF(AR$4&gt;=$L158+2,3,IF($L158+1=AR$4,2,IF(AND($K158&lt;=AR$4,AR$4&lt;=$L158),1,0)))</f>
+        <f t="shared" ref="AD158:AR175" si="25">IF(AR$4&gt;=$L158+2,3,IF($L158+1=AR$4,2,IF(AND($K158&lt;=AR$4,AR$4&lt;=$L158),1,0)))</f>
         <v>3</v>
       </c>
     </row>
@@ -26671,7 +26698,7 @@
         <v>3</v>
       </c>
       <c r="X169" s="26">
-        <f t="shared" ref="N169:AC207" si="26">IF(X$4&gt;=$L169+2,3,IF($L169+1=X$4,2,IF(AND($K169&lt;=X$4,X$4&lt;=$L169),1,0)))</f>
+        <f t="shared" ref="N169:AC185" si="26">IF(X$4&gt;=$L169+2,3,IF($L169+1=X$4,2,IF(AND($K169&lt;=X$4,X$4&lt;=$L169),1,0)))</f>
         <v>3</v>
       </c>
       <c r="Y169" s="26">
@@ -27507,7 +27534,7 @@
         <v>3</v>
       </c>
       <c r="AR175" s="26">
-        <f t="shared" ref="AD175:AR207" si="27">IF(AR$4&gt;=$L175+2,3,IF($L175+1=AR$4,2,IF(AND($K175&lt;=AR$4,AR$4&lt;=$L175),1,0)))</f>
+        <f t="shared" ref="AD175:AR192" si="27">IF(AR$4&gt;=$L175+2,3,IF($L175+1=AR$4,2,IF(AND($K175&lt;=AR$4,AR$4&lt;=$L175),1,0)))</f>
         <v>3</v>
       </c>
     </row>
@@ -28683,7 +28710,7 @@
         <v>3</v>
       </c>
       <c r="W185" s="26">
-        <f t="shared" ref="N185:AC207" si="28">IF(W$4&gt;=$L185+2,3,IF($L185+1=W$4,2,IF(AND($K185&lt;=W$4,W$4&lt;=$L185),1,0)))</f>
+        <f t="shared" ref="N185:AC201" si="28">IF(W$4&gt;=$L185+2,3,IF($L185+1=W$4,2,IF(AND($K185&lt;=W$4,W$4&lt;=$L185),1,0)))</f>
         <v>3</v>
       </c>
       <c r="X185" s="26">
@@ -31749,8 +31776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA4B32BC-6AFD-4A83-AE03-9056213DAF6D}">
   <dimension ref="B2:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -31760,47 +31787,47 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" s="29" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B3" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B4" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B5" s="31" t="s">
-        <v>93</v>
+      <c r="B5" s="29" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B6" s="28" t="s">
-        <v>81</v>
+      <c r="B6" s="31" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B7" s="29" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B8" s="30" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B9" s="29" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B10" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -31851,11 +31878,11 @@
       </c>
       <c r="I4">
         <f>COUNTIF(テーブル1[ステータス],"完了")</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4">
         <f>COUNTIF(テーブル1[ステータス],"着手中")</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K4">
         <f>COUNTIF(テーブル1[ステータス],"遅延")</f>

--- a/doc/PJ管理.xlsx
+++ b/doc/PJ管理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A362E11-B2A7-4165-A507-10B748F95A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC3B124-524C-4093-9AD8-B05BC079A8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="3" xr2:uid="{18759526-B486-4F50-90B4-3DA4ED19388F}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="106">
   <si>
     <t>服装管理アプリ作成プロジェクト</t>
     <rPh sb="0" eb="2">
@@ -898,23 +898,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>プロフィールの編集画面のプルダウンは完成
-登録するところがまだできてない</t>
-    <rPh sb="7" eb="9">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>居住地のプルダウの表示完了
 確認画面のところで、暑がり寒がりがまだできていない</t>
     <rPh sb="0" eb="3">
@@ -957,14 +940,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>全体進捗：50％</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ユーザー登録画面：95％</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -997,7 +972,65 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>プロフィール画面：95％</t>
+    <t>服登録画面</t>
+    <rPh sb="0" eb="1">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>藤澤さんの環境では動かない</t>
+    <rPh sb="0" eb="2">
+      <t>フジサワ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザー登録画面：100％</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プロフィール画面：100％</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全体進捗：55％</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データを取得して出力することができていない</t>
+    <rPh sb="4" eb="6">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>１件の登録はできるようになったが
+６件はまだできていない</t>
+    <rPh sb="1" eb="2">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ケン</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1096,7 +1129,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1136,6 +1169,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1244,7 +1295,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1343,6 +1394,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1483,7 +1543,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>34</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1701,7 +1761,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2026,7 +2086,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>34</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>7</c:v>
@@ -2038,7 +2098,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4418,11 +4478,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE037D95-2C6F-4C1A-BF41-FD6595FF0199}">
   <dimension ref="B1:AR208"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane xSplit="12" ySplit="4" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="12" ySplit="4" topLeftCell="M33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9491,7 +9551,7 @@
       </c>
     </row>
     <row r="38" spans="6:44" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="F38" t="s">
+      <c r="F38" s="33" t="s">
         <v>33</v>
       </c>
       <c r="G38" t="s">
@@ -9501,10 +9561,10 @@
         <v>6</v>
       </c>
       <c r="I38" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K38" s="23">
         <v>45096</v>
@@ -9637,8 +9697,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="6:44" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="F39" t="s">
+    <row r="39" spans="6:44" x14ac:dyDescent="0.4">
+      <c r="F39" s="34" t="s">
         <v>33</v>
       </c>
       <c r="G39" t="s">
@@ -9648,10 +9708,10 @@
         <v>10</v>
       </c>
       <c r="I39" s="32" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="J39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K39" s="23">
         <v>45096</v>
@@ -9785,7 +9845,7 @@
       </c>
     </row>
     <row r="40" spans="6:44" x14ac:dyDescent="0.4">
-      <c r="F40" t="s">
+      <c r="F40" s="35" t="s">
         <v>33</v>
       </c>
       <c r="G40" t="s">
@@ -9932,7 +9992,7 @@
       </c>
     </row>
     <row r="41" spans="6:44" x14ac:dyDescent="0.4">
-      <c r="F41" t="s">
+      <c r="F41" s="33" t="s">
         <v>33</v>
       </c>
       <c r="G41" t="s">
@@ -9942,7 +10002,7 @@
         <v>4</v>
       </c>
       <c r="I41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J41" t="s">
         <v>35</v>
@@ -10225,15 +10285,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="6:44" x14ac:dyDescent="0.4">
-      <c r="F43" t="s">
+    <row r="43" spans="6:44" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="F43" s="34" t="s">
         <v>33</v>
       </c>
       <c r="G43" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="H43" t="s">
         <v>6</v>
+      </c>
+      <c r="I43" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="J43" t="s">
+        <v>35</v>
       </c>
       <c r="K43" s="23">
         <v>45097</v>
@@ -10508,7 +10574,7 @@
       </c>
     </row>
     <row r="45" spans="6:44" x14ac:dyDescent="0.4">
-      <c r="F45" t="s">
+      <c r="F45" s="35" t="s">
         <v>33</v>
       </c>
       <c r="G45" t="s">
@@ -10649,7 +10715,7 @@
       </c>
     </row>
     <row r="46" spans="6:44" x14ac:dyDescent="0.4">
-      <c r="F46" t="s">
+      <c r="F46" s="35" t="s">
         <v>33</v>
       </c>
       <c r="G46" t="s">
@@ -10657,6 +10723,12 @@
       </c>
       <c r="H46" t="s">
         <v>4</v>
+      </c>
+      <c r="I46" t="s">
+        <v>104</v>
+      </c>
+      <c r="J46" t="s">
+        <v>35</v>
       </c>
       <c r="K46" s="23">
         <v>45097</v>
@@ -10790,7 +10862,7 @@
       </c>
     </row>
     <row r="47" spans="6:44" x14ac:dyDescent="0.4">
-      <c r="F47" t="s">
+      <c r="F47" s="34" t="s">
         <v>33</v>
       </c>
       <c r="G47" t="s">
@@ -31742,9 +31814,10 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -31765,7 +31838,7 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
       <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicer r:id="rId3"/>
+        <x14:slicer r:id="rId4"/>
       </x14:slicerList>
     </ext>
   </extLst>
@@ -31777,7 +31850,7 @@
   <dimension ref="B2:B10"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -31787,7 +31860,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" s="29" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.4">
@@ -31802,12 +31875,12 @@
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B5" s="29" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B6" s="31" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.4">
@@ -31878,7 +31951,7 @@
       </c>
       <c r="I4">
         <f>COUNTIF(テーブル1[ステータス],"完了")</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J4">
         <f>COUNTIF(テーブル1[ステータス],"着手中")</f>
@@ -31894,7 +31967,7 @@
       </c>
       <c r="M4">
         <f>COUNTA(テーブル1[タスク])-I6</f>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="3:13" x14ac:dyDescent="0.4">
@@ -31914,7 +31987,7 @@
       </c>
       <c r="I6">
         <f>I4+J4+K4+L4</f>
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="3:13" x14ac:dyDescent="0.4">

--- a/doc/PJ管理.xlsx
+++ b/doc/PJ管理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E339AE2B-6565-454D-B6E2-50B9859191F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE576045-0023-4FDA-B42B-51FECEBC610F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{18759526-B486-4F50-90B4-3DA4ED19388F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="3" xr2:uid="{18759526-B486-4F50-90B4-3DA4ED19388F}"/>
   </bookViews>
   <sheets>
     <sheet name="プロジェクト体制" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="102">
   <si>
     <t>服装管理アプリ作成プロジェクト</t>
     <rPh sb="0" eb="2">
@@ -744,13 +744,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ボタン作成</t>
-    <rPh sb="3" eb="5">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>各画面進捗：サーブレット、dao、model（CSS,JSは除く）</t>
   </si>
   <si>
@@ -758,55 +751,6 @@
   </si>
   <si>
     <t>メモ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>JSONから無理やりデータをHTMLに出力できた</t>
-    <rPh sb="6" eb="8">
-      <t>ムリ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>編集と編集確認６０％くらい</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>天気の部分のサーブレット着手中</t>
-    <rPh sb="0" eb="2">
-      <t>テンキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>チャクシュ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>チュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>編集画面：60%</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -822,16 +766,6 @@
   <si>
     <t>プロフィール画面</t>
     <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>編集画面</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
       <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -868,19 +802,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>削除確認画面</t>
-    <rPh sb="0" eb="2">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>服一覧画面</t>
     <rPh sb="0" eb="3">
       <t>フクイチラン</t>
@@ -888,54 +809,6 @@
     <rPh sb="3" eb="5">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>暑がり寒がり指数繁栄</t>
-    <rPh sb="0" eb="1">
-      <t>アツ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>サム</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シスウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ハンエイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1D1C1D"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>履歴検索画面：6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1D1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1D1C1D"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>％</t>
-    </r>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -960,60 +833,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>全体進捗：55％</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>データを取得して出力することができていない</t>
-    <rPh sb="4" eb="6">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>１件の登録はできるようになったが
-６件はまだできていない</t>
-    <rPh sb="1" eb="2">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ケン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>服削除画面</t>
-    <rPh sb="0" eb="1">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>日付での検索は可能</t>
-    <rPh sb="0" eb="2">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>コーディネート履歴</t>
     <rPh sb="7" eb="9">
       <t>リレキ</t>
@@ -1025,38 +844,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1D1C1D"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>それ以外：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1D1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1D1C1D"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>％</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>服タグ一覧画面：１００％</t>
     <rPh sb="0" eb="1">
       <t>フク</t>
@@ -1065,6 +852,90 @@
       <t>イチラン</t>
     </rPh>
     <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コーディネート登録の画像を揃えた</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ソロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボタンの横並びなど７０％</t>
+    <rPh sb="4" eb="6">
+      <t>ヨコナラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>服削除</t>
+    <rPh sb="0" eb="1">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>服編集</t>
+    <rPh sb="0" eb="1">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>女性の時の分岐を考える</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ブンキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全体進捗：　70%</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>履歴検索画面：80%</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>編集画面：50%</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除画面80%</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
       <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -1160,7 +1031,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF1D1C1D"/>
-      <name val="Arial"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -1331,7 +1202,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1425,9 +1296,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1438,6 +1306,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1579,7 +1453,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>37</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1650,7 +1524,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1797,7 +1671,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2122,10 +1996,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>37</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2134,7 +2008,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3995,8 +3869,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E58DD16-08F5-4A02-A963-EA01AF5589D0}" name="テーブル1" displayName="テーブル1" ref="F4:L210" totalsRowShown="0">
-  <autoFilter ref="F4:L210" xr:uid="{1E58DD16-08F5-4A02-A963-EA01AF5589D0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E58DD16-08F5-4A02-A963-EA01AF5589D0}" name="テーブル1" displayName="テーブル1" ref="F4:L209" totalsRowShown="0">
+  <autoFilter ref="F4:L209" xr:uid="{1E58DD16-08F5-4A02-A963-EA01AF5589D0}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{C897A548-63EF-43A3-92C2-77D1D598E6A6}" name="項目"/>
     <tableColumn id="2" xr3:uid="{7F8C0CCC-259E-468B-9638-2C5B6FF1AC1E}" name="タスク"/>
@@ -4313,44 +4187,44 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:15" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" ht="24" x14ac:dyDescent="0.4">
       <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
         <v>5</v>
       </c>
@@ -4372,7 +4246,7 @@
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -4409,28 +4283,28 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="4.08203125" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.125" customWidth="1"/>
+    <col min="3" max="3" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:3" ht="24" x14ac:dyDescent="0.4">
       <c r="B2" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
         <v>21</v>
       </c>
@@ -4449,57 +4323,57 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="4.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:3" ht="24" x14ac:dyDescent="0.4">
       <c r="B2" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C11" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>17</v>
       </c>
@@ -4512,34 +4386,34 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE037D95-2C6F-4C1A-BF41-FD6595FF0199}">
-  <dimension ref="B1:AR210"/>
+  <dimension ref="B1:AR209"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="48" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="12" ySplit="4" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
     <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.58203125" customWidth="1"/>
+    <col min="3" max="3" width="2.625" customWidth="1"/>
     <col min="4" max="4" width="2.25" customWidth="1"/>
-    <col min="5" max="5" width="2.33203125" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.375" customWidth="1"/>
+    <col min="6" max="6" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" customWidth="1"/>
     <col min="9" max="9" width="45" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="18.33203125" customWidth="1"/>
-    <col min="13" max="13" width="4.33203125" customWidth="1"/>
-    <col min="14" max="14" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="44" width="3.83203125" customWidth="1"/>
+    <col min="11" max="12" width="18.375" customWidth="1"/>
+    <col min="13" max="13" width="4.375" customWidth="1"/>
+    <col min="14" max="14" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="44" width="3.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:44" x14ac:dyDescent="0.4">
       <c r="B1">
         <v>2023</v>
       </c>
@@ -4553,10 +4427,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="2:44" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="2:44" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I2" s="27"/>
     </row>
-    <row r="3" spans="2:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:44" x14ac:dyDescent="0.4">
       <c r="N3" s="18" t="str">
         <f>TEXT(N4,"aaa")</f>
         <v>木</v>
@@ -4682,7 +4556,7 @@
         <v>土</v>
       </c>
     </row>
-    <row r="4" spans="2:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:44" x14ac:dyDescent="0.4">
       <c r="F4" t="s">
         <v>27</v>
       </c>
@@ -4693,7 +4567,7 @@
         <v>30</v>
       </c>
       <c r="I4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J4" t="s">
         <v>29</v>
@@ -4829,7 +4703,7 @@
         <v>45108</v>
       </c>
     </row>
-    <row r="5" spans="2:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:44" x14ac:dyDescent="0.4">
       <c r="F5" t="s">
         <v>43</v>
       </c>
@@ -4973,7 +4847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:44" x14ac:dyDescent="0.4">
       <c r="B6" s="24"/>
       <c r="F6" t="s">
         <v>44</v>
@@ -5118,7 +4992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:44" x14ac:dyDescent="0.4">
       <c r="F7" t="s">
         <v>44</v>
       </c>
@@ -5262,7 +5136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:44" x14ac:dyDescent="0.4">
       <c r="B8" s="25"/>
       <c r="F8" t="s">
         <v>31</v>
@@ -5407,7 +5281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:44" x14ac:dyDescent="0.4">
       <c r="F9" t="s">
         <v>31</v>
       </c>
@@ -5551,7 +5425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:44" x14ac:dyDescent="0.4">
       <c r="F10" t="s">
         <v>31</v>
       </c>
@@ -5695,7 +5569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:44" x14ac:dyDescent="0.4">
       <c r="F11" t="s">
         <v>32</v>
       </c>
@@ -5839,7 +5713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:44" x14ac:dyDescent="0.4">
       <c r="F12" t="s">
         <v>33</v>
       </c>
@@ -5983,7 +5857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:44" x14ac:dyDescent="0.4">
       <c r="F13" t="s">
         <v>33</v>
       </c>
@@ -6127,7 +6001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:44" x14ac:dyDescent="0.4">
       <c r="F14" t="s">
         <v>33</v>
       </c>
@@ -6271,7 +6145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:44" x14ac:dyDescent="0.4">
       <c r="F15" t="s">
         <v>33</v>
       </c>
@@ -6415,7 +6289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:44" x14ac:dyDescent="0.4">
       <c r="F16" t="s">
         <v>33</v>
       </c>
@@ -6559,7 +6433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="6:44" x14ac:dyDescent="0.4">
       <c r="F17" t="s">
         <v>33</v>
       </c>
@@ -6703,7 +6577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="6:44" x14ac:dyDescent="0.4">
       <c r="F18" t="s">
         <v>33</v>
       </c>
@@ -6847,7 +6721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="6:44" x14ac:dyDescent="0.4">
       <c r="F19" t="s">
         <v>33</v>
       </c>
@@ -6991,7 +6865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="6:44" x14ac:dyDescent="0.4">
       <c r="F20" t="s">
         <v>33</v>
       </c>
@@ -7135,7 +7009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="6:44" x14ac:dyDescent="0.4">
       <c r="F21" t="s">
         <v>33</v>
       </c>
@@ -7279,7 +7153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="6:44" x14ac:dyDescent="0.4">
       <c r="F22" t="s">
         <v>33</v>
       </c>
@@ -7423,7 +7297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="6:44" x14ac:dyDescent="0.4">
       <c r="F23" t="s">
         <v>33</v>
       </c>
@@ -7567,7 +7441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="6:44" x14ac:dyDescent="0.4">
       <c r="F24" t="s">
         <v>33</v>
       </c>
@@ -7711,7 +7585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="6:44" x14ac:dyDescent="0.4">
       <c r="F25" t="s">
         <v>33</v>
       </c>
@@ -7855,7 +7729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="6:44" x14ac:dyDescent="0.4">
       <c r="F26" t="s">
         <v>33</v>
       </c>
@@ -7878,7 +7752,7 @@
         <v>45093</v>
       </c>
       <c r="N26" s="26">
-        <f t="shared" ref="N26:AC41" si="7">IF(N$4&gt;=$L26+2,3,IF($L26+1=N$4,2,IF(AND($K26&lt;=N$4,N$4&lt;=$L26),1,0)))</f>
+        <f t="shared" ref="N26:AC40" si="7">IF(N$4&gt;=$L26+2,3,IF($L26+1=N$4,2,IF(AND($K26&lt;=N$4,N$4&lt;=$L26),1,0)))</f>
         <v>0</v>
       </c>
       <c r="O26" s="26">
@@ -8002,7 +7876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="6:44" x14ac:dyDescent="0.4">
       <c r="F27" t="s">
         <v>72</v>
       </c>
@@ -8146,7 +8020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="6:44" x14ac:dyDescent="0.4">
       <c r="F28" t="s">
         <v>72</v>
       </c>
@@ -8290,7 +8164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="6:44" x14ac:dyDescent="0.4">
       <c r="F29" t="s">
         <v>72</v>
       </c>
@@ -8434,7 +8308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="6:44" x14ac:dyDescent="0.4">
       <c r="F30" t="s">
         <v>72</v>
       </c>
@@ -8578,7 +8452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="6:44" x14ac:dyDescent="0.4">
       <c r="F31" t="s">
         <v>72</v>
       </c>
@@ -8722,7 +8596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="6:44" x14ac:dyDescent="0.4">
       <c r="F32" t="s">
         <v>33</v>
       </c>
@@ -8866,7 +8740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="6:44" x14ac:dyDescent="0.4">
       <c r="F33" t="s">
         <v>33</v>
       </c>
@@ -9010,7 +8884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="6:44" x14ac:dyDescent="0.4">
       <c r="F34" t="s">
         <v>33</v>
       </c>
@@ -9154,7 +9028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="6:44" x14ac:dyDescent="0.4">
       <c r="F35" t="s">
         <v>33</v>
       </c>
@@ -9298,7 +9172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="6:44" x14ac:dyDescent="0.4">
       <c r="F36" t="s">
         <v>33</v>
       </c>
@@ -9442,7 +9316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="6:44" x14ac:dyDescent="0.4">
       <c r="F37" t="s">
         <v>33</v>
       </c>
@@ -9586,17 +9460,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="6:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="F38" s="33" t="s">
+    <row r="38" spans="6:44" x14ac:dyDescent="0.4">
+      <c r="F38" s="32" t="s">
         <v>33</v>
       </c>
       <c r="G38" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s">
         <v>6</v>
       </c>
-      <c r="I38" s="32"/>
+      <c r="I38" s="31"/>
       <c r="J38" t="s">
         <v>34</v>
       </c>
@@ -9731,17 +9605,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="6:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="F39" s="34" t="s">
+    <row r="39" spans="6:44" x14ac:dyDescent="0.4">
+      <c r="F39" s="33" t="s">
         <v>33</v>
       </c>
       <c r="G39" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H39" t="s">
         <v>10</v>
       </c>
-      <c r="I39" s="32"/>
+      <c r="I39" s="31"/>
       <c r="J39" t="s">
         <v>34</v>
       </c>
@@ -9816,7 +9690,7 @@
         <v>0</v>
       </c>
       <c r="AD39" s="26">
-        <f t="shared" ref="AD39:AR57" si="9">IF(AD$4&gt;=$L39+2,3,IF($L39+1=AD$4,2,IF(AND($K39&lt;=AD$4,AD$4&lt;=$L39),1,0)))</f>
+        <f t="shared" ref="AD39:AR56" si="9">IF(AD$4&gt;=$L39+2,3,IF($L39+1=AD$4,2,IF(AND($K39&lt;=AD$4,AD$4&lt;=$L39),1,0)))</f>
         <v>0</v>
       </c>
       <c r="AE39" s="26">
@@ -9876,21 +9750,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="6:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="F40" s="35" t="s">
+    <row r="40" spans="6:44" x14ac:dyDescent="0.4">
+      <c r="F40" s="32" t="s">
         <v>33</v>
       </c>
       <c r="G40" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H40" t="s">
-        <v>8</v>
-      </c>
-      <c r="I40" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="J40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K40" s="23">
         <v>45096</v>
@@ -10023,18 +9894,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="6:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="F41" s="33" t="s">
+    <row r="41" spans="6:44" x14ac:dyDescent="0.4">
+      <c r="F41" t="s">
         <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H41" t="s">
-        <v>4</v>
-      </c>
-      <c r="I41" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="J41" t="s">
         <v>34</v>
@@ -10046,67 +9914,67 @@
         <v>45097</v>
       </c>
       <c r="N41" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="N41:AC58" si="10">IF(N$4&gt;=$L41+2,3,IF($L41+1=N$4,2,IF(AND($K41&lt;=N$4,N$4&lt;=$L41),1,0)))</f>
         <v>0</v>
       </c>
       <c r="O41" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P41" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q41" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R41" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S41" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T41" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U41" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V41" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W41" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X41" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y41" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z41" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA41" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB41" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC41" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AD41" s="26">
@@ -10170,30 +10038,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="6:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="F42" t="s">
+    <row r="42" spans="6:44" x14ac:dyDescent="0.4">
+      <c r="F42" s="33" t="s">
         <v>33</v>
       </c>
       <c r="G42" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H42" t="s">
-        <v>12</v>
-      </c>
-      <c r="I42" t="s">
-        <v>83</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I42" s="31"/>
       <c r="J42" t="s">
         <v>34</v>
       </c>
       <c r="K42" s="23">
-        <v>45096</v>
+        <v>45097</v>
       </c>
       <c r="L42" s="23">
-        <v>45097</v>
+        <v>45098</v>
       </c>
       <c r="N42" s="26">
-        <f t="shared" ref="N42:AC59" si="10">IF(N$4&gt;=$L42+2,3,IF($L42+1=N$4,2,IF(AND($K42&lt;=N$4,N$4&lt;=$L42),1,0)))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O42" s="26">
@@ -10266,7 +10132,7 @@
       </c>
       <c r="AF42" s="26">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG42" s="26">
         <f t="shared" si="9"/>
@@ -10274,11 +10140,11 @@
       </c>
       <c r="AH42" s="26">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI42" s="26">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ42" s="26">
         <f t="shared" si="9"/>
@@ -10317,21 +10183,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="6:44" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="F43" s="34" t="s">
+    <row r="43" spans="6:44" x14ac:dyDescent="0.4">
+      <c r="F43" t="s">
         <v>33</v>
       </c>
       <c r="G43" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="H43" t="s">
-        <v>6</v>
-      </c>
-      <c r="I43" s="32" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="J43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K43" s="23">
         <v>45097</v>
@@ -10464,21 +10327,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="6:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="F44" t="s">
+    <row r="44" spans="6:44" x14ac:dyDescent="0.4">
+      <c r="F44" s="34" t="s">
         <v>33</v>
       </c>
       <c r="G44" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H44" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="I44" s="35">
+        <v>0.8</v>
+      </c>
+      <c r="J44" t="s">
+        <v>35</v>
       </c>
       <c r="K44" s="23">
         <v>45097</v>
       </c>
       <c r="L44" s="23">
-        <v>45098</v>
+        <v>45100</v>
       </c>
       <c r="N44" s="26">
         <f t="shared" si="10"/>
@@ -10566,15 +10435,15 @@
       </c>
       <c r="AI44" s="26">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ44" s="26">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK44" s="26">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL44" s="26">
         <f t="shared" si="9"/>
@@ -10605,15 +10474,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="6:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="F45" s="35" t="s">
+    <row r="45" spans="6:44" x14ac:dyDescent="0.4">
+      <c r="F45" s="34" t="s">
         <v>33</v>
       </c>
       <c r="G45" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H45" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="I45" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="J45" t="s">
+        <v>35</v>
       </c>
       <c r="K45" s="23">
         <v>45097</v>
@@ -10622,283 +10497,286 @@
         <v>45100</v>
       </c>
       <c r="N45" s="26">
+        <f t="shared" ref="N45:AR45" si="11">IF(N$4&gt;=$L45+2,3,IF($L45+1=N$4,2,IF(AND($K45&lt;=N$4,N$4&lt;=$L45),1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="O45" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P45" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R45" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S45" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T45" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U45" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V45" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W45" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X45" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y45" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Z45" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA45" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AB45" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC45" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AD45" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AE45" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AF45" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG45" s="26">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AH45" s="26">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AI45" s="26">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AJ45" s="26">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AK45" s="26">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AL45" s="26">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="AM45" s="26">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="AN45" s="26">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="AO45" s="26">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="AP45" s="26">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="AQ45" s="26">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="AR45" s="26">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="6:44" x14ac:dyDescent="0.4">
+      <c r="F46" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="G46" t="s">
+        <v>86</v>
+      </c>
+      <c r="H46" t="s">
+        <v>4</v>
+      </c>
+      <c r="J46" t="s">
+        <v>34</v>
+      </c>
+      <c r="K46" s="23">
+        <v>45097</v>
+      </c>
+      <c r="L46" s="23">
+        <v>45100</v>
+      </c>
+      <c r="N46" s="26">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O45" s="26">
+      <c r="O46" s="26">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P45" s="26">
+      <c r="P46" s="26">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Q45" s="26">
+      <c r="Q46" s="26">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R45" s="26">
+      <c r="R46" s="26">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S45" s="26">
+      <c r="S46" s="26">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T45" s="26">
+      <c r="T46" s="26">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="U45" s="26">
+      <c r="U46" s="26">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="V45" s="26">
+      <c r="V46" s="26">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W45" s="26">
+      <c r="W46" s="26">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="X45" s="26">
+      <c r="X46" s="26">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y45" s="26">
+      <c r="Y46" s="26">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z45" s="26">
+      <c r="Z46" s="26">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA45" s="26">
+      <c r="AA46" s="26">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB45" s="26">
+      <c r="AB46" s="26">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC45" s="26">
+      <c r="AC46" s="26">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AD45" s="26">
+      <c r="AD46" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AE45" s="26">
+      <c r="AE46" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AF45" s="26">
+      <c r="AF46" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AG45" s="26">
+      <c r="AG46" s="26">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AH45" s="26">
+      <c r="AH46" s="26">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AI45" s="26">
+      <c r="AI46" s="26">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AJ45" s="26">
+      <c r="AJ46" s="26">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AK45" s="26">
+      <c r="AK46" s="26">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="AL45" s="26">
+      <c r="AL46" s="26">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="AM45" s="26">
+      <c r="AM46" s="26">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="AN45" s="26">
+      <c r="AN46" s="26">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="AO45" s="26">
+      <c r="AO46" s="26">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="AP45" s="26">
+      <c r="AP46" s="26">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="AQ45" s="26">
+      <c r="AQ46" s="26">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="AR45" s="26">
+      <c r="AR46" s="26">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="6:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="F46" s="35" t="s">
+    <row r="47" spans="6:44" x14ac:dyDescent="0.4">
+      <c r="F47" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="G46" t="s">
-        <v>102</v>
-      </c>
-      <c r="H46" t="s">
-        <v>4</v>
-      </c>
-      <c r="K46" s="23">
-        <v>45097</v>
-      </c>
-      <c r="L46" s="23">
-        <v>45100</v>
-      </c>
-      <c r="N46" s="26">
-        <f t="shared" ref="N46:AR46" si="11">IF(N$4&gt;=$L46+2,3,IF($L46+1=N$4,2,IF(AND($K46&lt;=N$4,N$4&lt;=$L46),1,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="O46" s="26">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P46" s="26">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Q46" s="26">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="R46" s="26">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S46" s="26">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="T46" s="26">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U46" s="26">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V46" s="26">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="W46" s="26">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X46" s="26">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y46" s="26">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Z46" s="26">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA46" s="26">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AB46" s="26">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AC46" s="26">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD46" s="26">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE46" s="26">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AF46" s="26">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AG46" s="26">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AH46" s="26">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AI46" s="26">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AJ46" s="26">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AK46" s="26">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="AL46" s="26">
-        <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="AM46" s="26">
-        <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="AN46" s="26">
-        <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="AO46" s="26">
-        <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="AP46" s="26">
-        <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="AQ46" s="26">
-        <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="AR46" s="26">
-        <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="6:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="F47" s="35" t="s">
-        <v>33</v>
-      </c>
       <c r="G47" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H47" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" t="s">
-        <v>100</v>
+        <v>8</v>
+      </c>
+      <c r="I47" s="35">
+        <v>0.8</v>
       </c>
       <c r="J47" t="s">
         <v>35</v>
@@ -10910,142 +10788,142 @@
         <v>45100</v>
       </c>
       <c r="N47" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="N47:AC48" si="12">IF(N$4&gt;=$L47+2,3,IF($L47+1=N$4,2,IF(AND($K47&lt;=N$4,N$4&lt;=$L47),1,0)))</f>
         <v>0</v>
       </c>
       <c r="O47" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P47" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q47" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R47" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S47" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T47" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U47" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V47" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W47" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="X47" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Y47" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z47" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA47" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AB47" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AC47" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AD47" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="AD47:AR48" si="13">IF(AD$4&gt;=$L47+2,3,IF($L47+1=AD$4,2,IF(AND($K47&lt;=AD$4,AD$4&lt;=$L47),1,0)))</f>
         <v>0</v>
       </c>
       <c r="AE47" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AF47" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AG47" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AH47" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AI47" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AJ47" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AK47" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="AL47" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="AM47" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="AN47" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="AO47" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="AP47" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="AQ47" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="AR47" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="6:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="F48" s="35" t="s">
+    <row r="48" spans="6:44" x14ac:dyDescent="0.4">
+      <c r="F48" s="33" t="s">
         <v>33</v>
       </c>
       <c r="G48" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="H48" t="s">
-        <v>8</v>
-      </c>
-      <c r="I48" t="s">
-        <v>103</v>
+        <v>12</v>
+      </c>
+      <c r="J48" t="s">
+        <v>34</v>
       </c>
       <c r="K48" s="23">
         <v>45097</v>
@@ -11054,7 +10932,7 @@
         <v>45100</v>
       </c>
       <c r="N48" s="26">
-        <f t="shared" ref="N48:AC49" si="12">IF(N$4&gt;=$L48+2,3,IF($L48+1=N$4,2,IF(AND($K48&lt;=N$4,N$4&lt;=$L48),1,0)))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O48" s="26">
@@ -11118,7 +10996,7 @@
         <v>0</v>
       </c>
       <c r="AD48" s="26">
-        <f t="shared" ref="AD48:AR49" si="13">IF(AD$4&gt;=$L48+2,3,IF($L48+1=AD$4,2,IF(AND($K48&lt;=AD$4,AD$4&lt;=$L48),1,0)))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE48" s="26">
@@ -11178,151 +11056,151 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="6:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="F49" s="34" t="s">
+    <row r="49" spans="6:44" x14ac:dyDescent="0.4">
+      <c r="F49" t="s">
         <v>33</v>
       </c>
       <c r="G49" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="H49" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J49" t="s">
         <v>35</v>
       </c>
       <c r="K49" s="23">
-        <v>45097</v>
+        <v>45096</v>
       </c>
       <c r="L49" s="23">
         <v>45100</v>
       </c>
       <c r="N49" s="26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O49" s="26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P49" s="26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q49" s="26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R49" s="26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S49" s="26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T49" s="26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U49" s="26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V49" s="26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W49" s="26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X49" s="26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y49" s="26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z49" s="26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA49" s="26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB49" s="26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC49" s="26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AD49" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE49" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AF49" s="26">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="AG49" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AH49" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AI49" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AJ49" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AK49" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AL49" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AM49" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AN49" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AO49" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AP49" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AQ49" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AR49" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="6:44" x14ac:dyDescent="0.4">
       <c r="F50" t="s">
         <v>33</v>
       </c>
@@ -11330,7 +11208,13 @@
         <v>71</v>
       </c>
       <c r="H50" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="I50" t="s">
+        <v>74</v>
+      </c>
+      <c r="J50" t="s">
+        <v>35</v>
       </c>
       <c r="K50" s="23">
         <v>45096</v>
@@ -11463,7 +11347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="6:44" x14ac:dyDescent="0.4">
       <c r="F51" t="s">
         <v>33</v>
       </c>
@@ -11471,10 +11355,10 @@
         <v>71</v>
       </c>
       <c r="H51" t="s">
-        <v>10</v>
-      </c>
-      <c r="I51" t="s">
-        <v>74</v>
+        <v>8</v>
+      </c>
+      <c r="J51" t="s">
+        <v>35</v>
       </c>
       <c r="K51" s="23">
         <v>45096</v>
@@ -11607,7 +11491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="6:44" x14ac:dyDescent="0.4">
       <c r="F52" t="s">
         <v>33</v>
       </c>
@@ -11615,7 +11499,13 @@
         <v>71</v>
       </c>
       <c r="H52" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="I52" t="s">
+        <v>97</v>
+      </c>
+      <c r="J52" t="s">
+        <v>35</v>
       </c>
       <c r="K52" s="23">
         <v>45096</v>
@@ -11748,7 +11638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="6:44" x14ac:dyDescent="0.4">
       <c r="F53" t="s">
         <v>33</v>
       </c>
@@ -11756,10 +11646,10 @@
         <v>71</v>
       </c>
       <c r="H53" t="s">
-        <v>4</v>
-      </c>
-      <c r="I53" t="s">
-        <v>81</v>
+        <v>12</v>
+      </c>
+      <c r="J53" t="s">
+        <v>35</v>
       </c>
       <c r="K53" s="23">
         <v>45096</v>
@@ -11892,15 +11782,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="6:44" x14ac:dyDescent="0.4">
       <c r="F54" t="s">
         <v>33</v>
       </c>
       <c r="G54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H54" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="I54" t="s">
+        <v>94</v>
+      </c>
+      <c r="J54" t="s">
+        <v>35</v>
       </c>
       <c r="K54" s="23">
         <v>45096</v>
@@ -12033,7 +11929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="6:44" x14ac:dyDescent="0.4">
       <c r="F55" t="s">
         <v>33</v>
       </c>
@@ -12041,7 +11937,13 @@
         <v>70</v>
       </c>
       <c r="H55" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="I55" t="s">
+        <v>93</v>
+      </c>
+      <c r="J55" t="s">
+        <v>35</v>
       </c>
       <c r="K55" s="23">
         <v>45096</v>
@@ -12174,7 +12076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="6:44" x14ac:dyDescent="0.4">
       <c r="F56" t="s">
         <v>33</v>
       </c>
@@ -12182,10 +12084,10 @@
         <v>70</v>
       </c>
       <c r="H56" t="s">
-        <v>10</v>
-      </c>
-      <c r="I56" t="s">
-        <v>77</v>
+        <v>8</v>
+      </c>
+      <c r="I56" s="35">
+        <v>0.7</v>
       </c>
       <c r="J56" t="s">
         <v>35</v>
@@ -12321,7 +12223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="6:44" x14ac:dyDescent="0.4">
       <c r="F57" t="s">
         <v>33</v>
       </c>
@@ -12329,7 +12231,7 @@
         <v>70</v>
       </c>
       <c r="H57" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J57" t="s">
         <v>35</v>
@@ -12405,67 +12307,67 @@
         <v>0</v>
       </c>
       <c r="AD57" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="AD57:AR73" si="14">IF(AD$4&gt;=$L57+2,3,IF($L57+1=AD$4,2,IF(AND($K57&lt;=AD$4,AD$4&lt;=$L57),1,0)))</f>
         <v>0</v>
       </c>
       <c r="AE57" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF57" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AG57" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AH57" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AI57" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AJ57" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AK57" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="AL57" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="AM57" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="AN57" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="AO57" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="AP57" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="AQ57" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="AR57" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="6:44" x14ac:dyDescent="0.4">
       <c r="F58" t="s">
         <v>33</v>
       </c>
@@ -12473,10 +12375,7 @@
         <v>70</v>
       </c>
       <c r="H58" t="s">
-        <v>4</v>
-      </c>
-      <c r="J58" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="K58" s="23">
         <v>45096</v>
@@ -12545,11 +12444,11 @@
         <v>0</v>
       </c>
       <c r="AC58" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="N58:AC74" si="15">IF(AC$4&gt;=$L58+2,3,IF($L58+1=AC$4,2,IF(AND($K58&lt;=AC$4,AC$4&lt;=$L58),1,0)))</f>
         <v>0</v>
       </c>
       <c r="AD58" s="26">
-        <f t="shared" ref="AD58:AR74" si="14">IF(AD$4&gt;=$L58+2,3,IF($L58+1=AD$4,2,IF(AND($K58&lt;=AD$4,AD$4&lt;=$L58),1,0)))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AE58" s="26">
@@ -12609,84 +12508,81 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="6:44" x14ac:dyDescent="0.4">
       <c r="F59" t="s">
-        <v>33</v>
-      </c>
-      <c r="G59" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="H59" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K59" s="23">
-        <v>45096</v>
+        <v>45103</v>
       </c>
       <c r="L59" s="23">
-        <v>45100</v>
+        <v>45103</v>
       </c>
       <c r="N59" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O59" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P59" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Q59" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R59" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="S59" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T59" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U59" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V59" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="W59" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X59" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y59" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Z59" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AA59" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB59" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AC59" s="26">
-        <f t="shared" ref="N59:AC75" si="15">IF(AC$4&gt;=$L59+2,3,IF($L59+1=AC$4,2,IF(AND($K59&lt;=AC$4,AC$4&lt;=$L59),1,0)))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AD59" s="26">
@@ -12699,39 +12595,39 @@
       </c>
       <c r="AF59" s="26">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG59" s="26">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH59" s="26">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI59" s="26">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ59" s="26">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK59" s="26">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL59" s="26">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AM59" s="26">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AN59" s="26">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO59" s="26">
         <f t="shared" si="14"/>
@@ -12750,12 +12646,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="6:44" x14ac:dyDescent="0.4">
       <c r="F60" t="s">
         <v>50</v>
       </c>
       <c r="H60" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K60" s="23">
         <v>45103</v>
@@ -12888,12 +12784,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="6:44" x14ac:dyDescent="0.4">
       <c r="F61" t="s">
         <v>50</v>
       </c>
       <c r="H61" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K61" s="23">
         <v>45103</v>
@@ -13026,12 +12922,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="6:44" x14ac:dyDescent="0.4">
       <c r="F62" t="s">
         <v>50</v>
       </c>
       <c r="H62" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K62" s="23">
         <v>45103</v>
@@ -13164,12 +13060,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="6:44" x14ac:dyDescent="0.4">
       <c r="F63" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H63" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="I63" t="s">
+        <v>64</v>
       </c>
       <c r="K63" s="23">
         <v>45103</v>
@@ -13302,21 +13201,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="6:44" x14ac:dyDescent="0.4">
       <c r="F64" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H64" t="s">
-        <v>10</v>
-      </c>
-      <c r="I64" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="K64" s="23">
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="L64" s="23">
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="N64" s="26">
         <f t="shared" si="15"/>
@@ -13420,15 +13316,15 @@
       </c>
       <c r="AM64" s="26">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN64" s="26">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO64" s="26">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP64" s="26">
         <f t="shared" si="14"/>
@@ -13443,12 +13339,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="6:44" x14ac:dyDescent="0.4">
       <c r="F65" t="s">
         <v>50</v>
       </c>
       <c r="H65" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K65" s="23">
         <v>45104</v>
@@ -13581,12 +13477,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="6:44" x14ac:dyDescent="0.4">
       <c r="F66" t="s">
         <v>50</v>
       </c>
       <c r="H66" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K66" s="23">
         <v>45104</v>
@@ -13719,12 +13615,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="6:44" x14ac:dyDescent="0.4">
       <c r="F67" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H67" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="I67" t="s">
+        <v>65</v>
       </c>
       <c r="K67" s="23">
         <v>45104</v>
@@ -13857,12 +13756,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="6:44" x14ac:dyDescent="0.4">
       <c r="F68" t="s">
         <v>55</v>
       </c>
       <c r="H68" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I68" t="s">
         <v>65</v>
@@ -13998,21 +13897,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="6:44" x14ac:dyDescent="0.4">
       <c r="F69" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H69" t="s">
-        <v>8</v>
-      </c>
-      <c r="I69" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="K69" s="23">
-        <v>45104</v>
+        <v>45105</v>
       </c>
       <c r="L69" s="23">
-        <v>45104</v>
+        <v>45105</v>
       </c>
       <c r="N69" s="26">
         <f t="shared" si="15"/>
@@ -14120,15 +14016,15 @@
       </c>
       <c r="AN69" s="26">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO69" s="26">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP69" s="26">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ69" s="26">
         <f t="shared" si="14"/>
@@ -14139,12 +14035,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="6:44" x14ac:dyDescent="0.4">
       <c r="F70" t="s">
         <v>50</v>
       </c>
       <c r="H70" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K70" s="23">
         <v>45105</v>
@@ -14277,12 +14173,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="6:44" x14ac:dyDescent="0.4">
       <c r="F71" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H71" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="I71" t="s">
+        <v>66</v>
       </c>
       <c r="K71" s="23">
         <v>45105</v>
@@ -14415,12 +14314,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="6:44" x14ac:dyDescent="0.4">
       <c r="F72" t="s">
         <v>55</v>
       </c>
       <c r="H72" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I72" t="s">
         <v>66</v>
@@ -14556,12 +14455,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="6:44" x14ac:dyDescent="0.4">
       <c r="F73" t="s">
         <v>55</v>
       </c>
       <c r="H73" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I73" t="s">
         <v>66</v>
@@ -14697,15 +14596,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="6:44" x14ac:dyDescent="0.4">
       <c r="F74" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H74" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="I74" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K74" s="23">
         <v>45105</v>
@@ -14770,221 +14669,221 @@
         <v>0</v>
       </c>
       <c r="AB74" s="26">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="AB74:AQ74" si="16">IF(AB$4&gt;=$L74+2,3,IF($L74+1=AB$4,2,IF(AND($K74&lt;=AB$4,AB$4&lt;=$L74),1,0)))</f>
         <v>0</v>
       </c>
       <c r="AC74" s="26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AD74" s="26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AE74" s="26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AF74" s="26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AG74" s="26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AH74" s="26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AI74" s="26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AJ74" s="26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AK74" s="26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AL74" s="26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AM74" s="26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AN74" s="26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AO74" s="26">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AP74" s="26">
-        <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="AQ74" s="26">
-        <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="AR74" s="26">
-        <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="6:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="F75" t="s">
-        <v>56</v>
-      </c>
-      <c r="H75" t="s">
-        <v>59</v>
-      </c>
-      <c r="I75" t="s">
-        <v>67</v>
-      </c>
-      <c r="K75" s="23">
-        <v>45105</v>
-      </c>
-      <c r="L75" s="23">
-        <v>45105</v>
-      </c>
-      <c r="N75" s="26">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="O75" s="26">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="P75" s="26">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Q75" s="26">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R75" s="26">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="S75" s="26">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="T75" s="26">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U75" s="26">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V75" s="26">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="W75" s="26">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="X75" s="26">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Y75" s="26">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Z75" s="26">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AA75" s="26">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AB75" s="26">
-        <f t="shared" ref="AB75:AQ75" si="16">IF(AB$4&gt;=$L75+2,3,IF($L75+1=AB$4,2,IF(AND($K75&lt;=AB$4,AB$4&lt;=$L75),1,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="AC75" s="26">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AD75" s="26">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AE75" s="26">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AF75" s="26">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AG75" s="26">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AH75" s="26">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AI75" s="26">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AJ75" s="26">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AK75" s="26">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AL75" s="26">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AM75" s="26">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AN75" s="26">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AO75" s="26">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="AP75" s="26">
+      <c r="AP74" s="26">
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
+      <c r="AQ74" s="26">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="AR74" s="26">
+        <f t="shared" ref="AD74:AR91" si="17">IF(AR$4&gt;=$L74+2,3,IF($L74+1=AR$4,2,IF(AND($K74&lt;=AR$4,AR$4&lt;=$L74),1,0)))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="6:44" x14ac:dyDescent="0.4">
+      <c r="F75" t="s">
+        <v>50</v>
+      </c>
+      <c r="H75" t="s">
+        <v>4</v>
+      </c>
+      <c r="K75" s="23">
+        <v>45106</v>
+      </c>
+      <c r="L75" s="23">
+        <v>45106</v>
+      </c>
+      <c r="N75" s="26">
+        <f t="shared" ref="N75:AC90" si="18">IF(N$4&gt;=$L75+2,3,IF($L75+1=N$4,2,IF(AND($K75&lt;=N$4,N$4&lt;=$L75),1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="O75" s="26">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P75" s="26">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Q75" s="26">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R75" s="26">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="S75" s="26">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="T75" s="26">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U75" s="26">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V75" s="26">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="W75" s="26">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="X75" s="26">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Y75" s="26">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Z75" s="26">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AA75" s="26">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AB75" s="26">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AC75" s="26">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AD75" s="26">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AE75" s="26">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AF75" s="26">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AG75" s="26">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AH75" s="26">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AI75" s="26">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AJ75" s="26">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AK75" s="26">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AL75" s="26">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AM75" s="26">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AN75" s="26">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AO75" s="26">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AP75" s="26">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
       <c r="AQ75" s="26">
-        <f t="shared" si="16"/>
-        <v>3</v>
+        <f t="shared" si="17"/>
+        <v>2</v>
       </c>
       <c r="AR75" s="26">
-        <f t="shared" ref="AD75:AR92" si="17">IF(AR$4&gt;=$L75+2,3,IF($L75+1=AR$4,2,IF(AND($K75&lt;=AR$4,AR$4&lt;=$L75),1,0)))</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="6:44" x14ac:dyDescent="0.4">
       <c r="F76" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H76" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="I76" t="s">
+        <v>66</v>
       </c>
       <c r="K76" s="23">
         <v>45106</v>
@@ -14993,7 +14892,7 @@
         <v>45106</v>
       </c>
       <c r="N76" s="26">
-        <f t="shared" ref="N76:AC91" si="18">IF(N$4&gt;=$L76+2,3,IF($L76+1=N$4,2,IF(AND($K76&lt;=N$4,N$4&lt;=$L76),1,0)))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O76" s="26">
@@ -15117,12 +15016,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="6:44" x14ac:dyDescent="0.4">
       <c r="F77" t="s">
         <v>55</v>
       </c>
       <c r="H77" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I77" t="s">
         <v>66</v>
@@ -15258,12 +15157,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="6:44" x14ac:dyDescent="0.4">
       <c r="F78" t="s">
         <v>55</v>
       </c>
       <c r="H78" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I78" t="s">
         <v>66</v>
@@ -15399,12 +15298,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="6:44" x14ac:dyDescent="0.4">
       <c r="F79" t="s">
         <v>55</v>
       </c>
       <c r="H79" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I79" t="s">
         <v>66</v>
@@ -15540,15 +15439,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="6:44" x14ac:dyDescent="0.4">
       <c r="F80" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H80" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="I80" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K80" s="23">
         <v>45106</v>
@@ -15681,21 +15580,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="6:44" x14ac:dyDescent="0.4">
       <c r="F81" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H81" t="s">
         <v>59</v>
       </c>
-      <c r="I81" t="s">
-        <v>68</v>
-      </c>
       <c r="K81" s="23">
-        <v>45106</v>
+        <v>45107</v>
       </c>
       <c r="L81" s="23">
-        <v>45106</v>
+        <v>45107</v>
       </c>
       <c r="N81" s="26">
         <f t="shared" si="18"/>
@@ -15811,156 +15707,144 @@
       </c>
       <c r="AP81" s="26">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ81" s="26">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR81" s="26">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="82" spans="6:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="F82" t="s">
-        <v>58</v>
-      </c>
-      <c r="H82" t="s">
-        <v>59</v>
-      </c>
-      <c r="K82" s="23">
-        <v>45107</v>
-      </c>
-      <c r="L82" s="23">
-        <v>45107</v>
-      </c>
+    <row r="82" spans="6:44" x14ac:dyDescent="0.4">
       <c r="N82" s="26">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O82" s="26">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P82" s="26">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q82" s="26">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R82" s="26">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S82" s="26">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T82" s="26">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U82" s="26">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V82" s="26">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W82" s="26">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X82" s="26">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y82" s="26">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z82" s="26">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA82" s="26">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB82" s="26">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC82" s="26">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD82" s="26">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE82" s="26">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF82" s="26">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG82" s="26">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH82" s="26">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI82" s="26">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ82" s="26">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK82" s="26">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL82" s="26">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM82" s="26">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN82" s="26">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO82" s="26">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP82" s="26">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ82" s="26">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR82" s="26">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="83" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="6:44" x14ac:dyDescent="0.4">
       <c r="N83" s="26">
         <f t="shared" si="18"/>
         <v>3</v>
@@ -16086,7 +15970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="6:44" x14ac:dyDescent="0.4">
       <c r="N84" s="26">
         <f t="shared" si="18"/>
         <v>3</v>
@@ -16212,7 +16096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="6:44" x14ac:dyDescent="0.4">
       <c r="N85" s="26">
         <f t="shared" si="18"/>
         <v>3</v>
@@ -16338,7 +16222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="6:44" x14ac:dyDescent="0.4">
       <c r="N86" s="26">
         <f t="shared" si="18"/>
         <v>3</v>
@@ -16464,7 +16348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="6:44" x14ac:dyDescent="0.4">
       <c r="N87" s="26">
         <f t="shared" si="18"/>
         <v>3</v>
@@ -16590,7 +16474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="6:44" x14ac:dyDescent="0.4">
       <c r="N88" s="26">
         <f t="shared" si="18"/>
         <v>3</v>
@@ -16716,7 +16600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="6:44" x14ac:dyDescent="0.4">
       <c r="N89" s="26">
         <f t="shared" si="18"/>
         <v>3</v>
@@ -16842,7 +16726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="6:44" x14ac:dyDescent="0.4">
       <c r="N90" s="26">
         <f t="shared" si="18"/>
         <v>3</v>
@@ -16904,7 +16788,7 @@
         <v>3</v>
       </c>
       <c r="AC90" s="26">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="N90:AC106" si="19">IF(AC$4&gt;=$L90+2,3,IF($L90+1=AC$4,2,IF(AND($K90&lt;=AC$4,AC$4&lt;=$L90),1,0)))</f>
         <v>3</v>
       </c>
       <c r="AD90" s="26">
@@ -16968,69 +16852,69 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="6:44" x14ac:dyDescent="0.4">
       <c r="N91" s="26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="O91" s="26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="P91" s="26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="Q91" s="26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="R91" s="26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="S91" s="26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="T91" s="26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="U91" s="26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="V91" s="26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="W91" s="26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="X91" s="26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="Y91" s="26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="Z91" s="26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="AA91" s="26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="AB91" s="26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="AC91" s="26">
-        <f t="shared" ref="N91:AC107" si="19">IF(AC$4&gt;=$L91+2,3,IF($L91+1=AC$4,2,IF(AND($K91&lt;=AC$4,AC$4&lt;=$L91),1,0)))</f>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="AD91" s="26">
@@ -17090,11 +16974,11 @@
         <v>3</v>
       </c>
       <c r="AR91" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="AD91:AR108" si="20">IF(AR$4&gt;=$L91+2,3,IF($L91+1=AR$4,2,IF(AND($K91&lt;=AR$4,AR$4&lt;=$L91),1,0)))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="6:44" x14ac:dyDescent="0.4">
       <c r="N92" s="26">
         <f t="shared" si="19"/>
         <v>3</v>
@@ -17160,67 +17044,67 @@
         <v>3</v>
       </c>
       <c r="AD92" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="AE92" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="AF92" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="AG92" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="AH92" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="AI92" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="AJ92" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="AK92" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="AL92" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="AM92" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="AN92" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="AO92" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="AP92" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="AQ92" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="AR92" s="26">
-        <f t="shared" ref="AD92:AR109" si="20">IF(AR$4&gt;=$L92+2,3,IF($L92+1=AR$4,2,IF(AND($K92&lt;=AR$4,AR$4&lt;=$L92),1,0)))</f>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="6:44" x14ac:dyDescent="0.4">
       <c r="N93" s="26">
         <f t="shared" si="19"/>
         <v>3</v>
@@ -17346,7 +17230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="6:44" x14ac:dyDescent="0.4">
       <c r="N94" s="26">
         <f t="shared" si="19"/>
         <v>3</v>
@@ -17472,7 +17356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="6:44" x14ac:dyDescent="0.4">
       <c r="N95" s="26">
         <f t="shared" si="19"/>
         <v>3</v>
@@ -17598,7 +17482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="6:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="6:44" x14ac:dyDescent="0.4">
       <c r="N96" s="26">
         <f t="shared" si="19"/>
         <v>3</v>
@@ -17724,7 +17608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N97" s="26">
         <f t="shared" si="19"/>
         <v>3</v>
@@ -17850,7 +17734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N98" s="26">
         <f t="shared" si="19"/>
         <v>3</v>
@@ -17976,7 +17860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N99" s="26">
         <f t="shared" si="19"/>
         <v>3</v>
@@ -18102,7 +17986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N100" s="26">
         <f t="shared" si="19"/>
         <v>3</v>
@@ -18228,7 +18112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N101" s="26">
         <f t="shared" si="19"/>
         <v>3</v>
@@ -18354,7 +18238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N102" s="26">
         <f t="shared" si="19"/>
         <v>3</v>
@@ -18480,7 +18364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N103" s="26">
         <f t="shared" si="19"/>
         <v>3</v>
@@ -18606,7 +18490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N104" s="26">
         <f t="shared" si="19"/>
         <v>3</v>
@@ -18732,7 +18616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N105" s="26">
         <f t="shared" si="19"/>
         <v>3</v>
@@ -18858,7 +18742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N106" s="26">
         <f t="shared" si="19"/>
         <v>3</v>
@@ -18916,11 +18800,11 @@
         <v>3</v>
       </c>
       <c r="AB106" s="26">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="N106:AC122" si="21">IF(AB$4&gt;=$L106+2,3,IF($L106+1=AB$4,2,IF(AND($K106&lt;=AB$4,AB$4&lt;=$L106),1,0)))</f>
         <v>3</v>
       </c>
       <c r="AC106" s="26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="AD106" s="26">
@@ -18984,65 +18868,65 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N107" s="26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="O107" s="26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="P107" s="26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="Q107" s="26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="R107" s="26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="S107" s="26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="T107" s="26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="U107" s="26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="V107" s="26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="W107" s="26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="X107" s="26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="Y107" s="26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="Z107" s="26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="AA107" s="26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="AB107" s="26">
-        <f t="shared" ref="N107:AC123" si="21">IF(AB$4&gt;=$L107+2,3,IF($L107+1=AB$4,2,IF(AND($K107&lt;=AB$4,AB$4&lt;=$L107),1,0)))</f>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="AC107" s="26">
@@ -19110,7 +18994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N108" s="26">
         <f t="shared" si="21"/>
         <v>3</v>
@@ -19232,11 +19116,11 @@
         <v>3</v>
       </c>
       <c r="AR108" s="26">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="AD108:AR125" si="22">IF(AR$4&gt;=$L108+2,3,IF($L108+1=AR$4,2,IF(AND($K108&lt;=AR$4,AR$4&lt;=$L108),1,0)))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N109" s="26">
         <f t="shared" si="21"/>
         <v>3</v>
@@ -19302,67 +19186,67 @@
         <v>3</v>
       </c>
       <c r="AD109" s="26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
       <c r="AE109" s="26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
       <c r="AF109" s="26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
       <c r="AG109" s="26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
       <c r="AH109" s="26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
       <c r="AI109" s="26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
       <c r="AJ109" s="26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
       <c r="AK109" s="26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
       <c r="AL109" s="26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
       <c r="AM109" s="26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
       <c r="AN109" s="26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
       <c r="AO109" s="26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
       <c r="AP109" s="26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
       <c r="AQ109" s="26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
       <c r="AR109" s="26">
-        <f t="shared" ref="AD109:AR126" si="22">IF(AR$4&gt;=$L109+2,3,IF($L109+1=AR$4,2,IF(AND($K109&lt;=AR$4,AR$4&lt;=$L109),1,0)))</f>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N110" s="26">
         <f t="shared" si="21"/>
         <v>3</v>
@@ -19488,7 +19372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N111" s="26">
         <f t="shared" si="21"/>
         <v>3</v>
@@ -19614,7 +19498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N112" s="26">
         <f t="shared" si="21"/>
         <v>3</v>
@@ -19740,7 +19624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N113" s="26">
         <f t="shared" si="21"/>
         <v>3</v>
@@ -19866,7 +19750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N114" s="26">
         <f t="shared" si="21"/>
         <v>3</v>
@@ -19992,7 +19876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N115" s="26">
         <f t="shared" si="21"/>
         <v>3</v>
@@ -20118,7 +20002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N116" s="26">
         <f t="shared" si="21"/>
         <v>3</v>
@@ -20244,7 +20128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N117" s="26">
         <f t="shared" si="21"/>
         <v>3</v>
@@ -20370,7 +20254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N118" s="26">
         <f t="shared" si="21"/>
         <v>3</v>
@@ -20496,7 +20380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N119" s="26">
         <f t="shared" si="21"/>
         <v>3</v>
@@ -20622,7 +20506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N120" s="26">
         <f t="shared" si="21"/>
         <v>3</v>
@@ -20748,7 +20632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N121" s="26">
         <f t="shared" si="21"/>
         <v>3</v>
@@ -20874,7 +20758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N122" s="26">
         <f t="shared" si="21"/>
         <v>3</v>
@@ -20928,15 +20812,15 @@
         <v>3</v>
       </c>
       <c r="AA122" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="N122:AC138" si="23">IF(AA$4&gt;=$L122+2,3,IF($L122+1=AA$4,2,IF(AND($K122&lt;=AA$4,AA$4&lt;=$L122),1,0)))</f>
         <v>3</v>
       </c>
       <c r="AB122" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="AC122" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="AD122" s="26">
@@ -21000,61 +20884,61 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N123" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="O123" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="P123" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="Q123" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="R123" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="S123" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="T123" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="U123" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="V123" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="W123" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="X123" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="Y123" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="Z123" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="AA123" s="26">
-        <f t="shared" ref="N123:AC139" si="23">IF(AA$4&gt;=$L123+2,3,IF($L123+1=AA$4,2,IF(AND($K123&lt;=AA$4,AA$4&lt;=$L123),1,0)))</f>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="AB123" s="26">
@@ -21126,7 +21010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N124" s="26">
         <f t="shared" si="23"/>
         <v>3</v>
@@ -21252,7 +21136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N125" s="26">
         <f t="shared" si="23"/>
         <v>3</v>
@@ -21374,11 +21258,11 @@
         <v>3</v>
       </c>
       <c r="AR125" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="AD125:AR142" si="24">IF(AR$4&gt;=$L125+2,3,IF($L125+1=AR$4,2,IF(AND($K125&lt;=AR$4,AR$4&lt;=$L125),1,0)))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N126" s="26">
         <f t="shared" si="23"/>
         <v>3</v>
@@ -21444,67 +21328,67 @@
         <v>3</v>
       </c>
       <c r="AD126" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="AE126" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="AF126" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="AG126" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="AH126" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="AI126" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="AJ126" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="AK126" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="AL126" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="AM126" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="AN126" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="AO126" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="AP126" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="AQ126" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="AR126" s="26">
-        <f t="shared" ref="AD126:AR143" si="24">IF(AR$4&gt;=$L126+2,3,IF($L126+1=AR$4,2,IF(AND($K126&lt;=AR$4,AR$4&lt;=$L126),1,0)))</f>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N127" s="26">
         <f t="shared" si="23"/>
         <v>3</v>
@@ -21630,7 +21514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N128" s="26">
         <f t="shared" si="23"/>
         <v>3</v>
@@ -21756,7 +21640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N129" s="26">
         <f t="shared" si="23"/>
         <v>3</v>
@@ -21882,7 +21766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N130" s="26">
         <f t="shared" si="23"/>
         <v>3</v>
@@ -22008,7 +21892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N131" s="26">
         <f t="shared" si="23"/>
         <v>3</v>
@@ -22134,7 +22018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N132" s="26">
         <f t="shared" si="23"/>
         <v>3</v>
@@ -22260,7 +22144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N133" s="26">
         <f t="shared" si="23"/>
         <v>3</v>
@@ -22386,7 +22270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N134" s="26">
         <f t="shared" si="23"/>
         <v>3</v>
@@ -22512,7 +22396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N135" s="26">
         <f t="shared" si="23"/>
         <v>3</v>
@@ -22638,7 +22522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N136" s="26">
         <f t="shared" si="23"/>
         <v>3</v>
@@ -22764,7 +22648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N137" s="26">
         <f t="shared" si="23"/>
         <v>3</v>
@@ -22890,7 +22774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N138" s="26">
         <f t="shared" si="23"/>
         <v>3</v>
@@ -22940,19 +22824,19 @@
         <v>3</v>
       </c>
       <c r="Z138" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="N138:AC154" si="25">IF(Z$4&gt;=$L138+2,3,IF($L138+1=Z$4,2,IF(AND($K138&lt;=Z$4,Z$4&lt;=$L138),1,0)))</f>
         <v>3</v>
       </c>
       <c r="AA138" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>3</v>
       </c>
       <c r="AB138" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>3</v>
       </c>
       <c r="AC138" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>3</v>
       </c>
       <c r="AD138" s="26">
@@ -23016,57 +22900,57 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N139" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>3</v>
       </c>
       <c r="O139" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>3</v>
       </c>
       <c r="P139" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>3</v>
       </c>
       <c r="Q139" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>3</v>
       </c>
       <c r="R139" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>3</v>
       </c>
       <c r="S139" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>3</v>
       </c>
       <c r="T139" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>3</v>
       </c>
       <c r="U139" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>3</v>
       </c>
       <c r="V139" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>3</v>
       </c>
       <c r="W139" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>3</v>
       </c>
       <c r="X139" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>3</v>
       </c>
       <c r="Y139" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>3</v>
       </c>
       <c r="Z139" s="26">
-        <f t="shared" ref="N139:AC155" si="25">IF(Z$4&gt;=$L139+2,3,IF($L139+1=Z$4,2,IF(AND($K139&lt;=Z$4,Z$4&lt;=$L139),1,0)))</f>
+        <f t="shared" si="25"/>
         <v>3</v>
       </c>
       <c r="AA139" s="26">
@@ -23142,7 +23026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N140" s="26">
         <f t="shared" si="25"/>
         <v>3</v>
@@ -23268,7 +23152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N141" s="26">
         <f t="shared" si="25"/>
         <v>3</v>
@@ -23394,7 +23278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N142" s="26">
         <f t="shared" si="25"/>
         <v>3</v>
@@ -23516,11 +23400,11 @@
         <v>3</v>
       </c>
       <c r="AR142" s="26">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="AD142:AR159" si="26">IF(AR$4&gt;=$L142+2,3,IF($L142+1=AR$4,2,IF(AND($K142&lt;=AR$4,AR$4&lt;=$L142),1,0)))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N143" s="26">
         <f t="shared" si="25"/>
         <v>3</v>
@@ -23586,67 +23470,67 @@
         <v>3</v>
       </c>
       <c r="AD143" s="26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
       <c r="AE143" s="26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
       <c r="AF143" s="26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
       <c r="AG143" s="26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
       <c r="AH143" s="26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
       <c r="AI143" s="26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
       <c r="AJ143" s="26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
       <c r="AK143" s="26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
       <c r="AL143" s="26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
       <c r="AM143" s="26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
       <c r="AN143" s="26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
       <c r="AO143" s="26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
       <c r="AP143" s="26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
       <c r="AQ143" s="26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
       <c r="AR143" s="26">
-        <f t="shared" ref="AD143:AR160" si="26">IF(AR$4&gt;=$L143+2,3,IF($L143+1=AR$4,2,IF(AND($K143&lt;=AR$4,AR$4&lt;=$L143),1,0)))</f>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N144" s="26">
         <f t="shared" si="25"/>
         <v>3</v>
@@ -23772,7 +23656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N145" s="26">
         <f t="shared" si="25"/>
         <v>3</v>
@@ -23898,7 +23782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N146" s="26">
         <f t="shared" si="25"/>
         <v>3</v>
@@ -24024,7 +23908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N147" s="26">
         <f t="shared" si="25"/>
         <v>3</v>
@@ -24150,7 +24034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N148" s="26">
         <f t="shared" si="25"/>
         <v>3</v>
@@ -24276,7 +24160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N149" s="26">
         <f t="shared" si="25"/>
         <v>3</v>
@@ -24402,7 +24286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N150" s="26">
         <f t="shared" si="25"/>
         <v>3</v>
@@ -24528,7 +24412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N151" s="26">
         <f t="shared" si="25"/>
         <v>3</v>
@@ -24654,7 +24538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N152" s="26">
         <f t="shared" si="25"/>
         <v>3</v>
@@ -24780,7 +24664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N153" s="26">
         <f t="shared" si="25"/>
         <v>3</v>
@@ -24906,7 +24790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N154" s="26">
         <f t="shared" si="25"/>
         <v>3</v>
@@ -24952,23 +24836,23 @@
         <v>3</v>
       </c>
       <c r="Y154" s="26">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="N154:AC170" si="27">IF(Y$4&gt;=$L154+2,3,IF($L154+1=Y$4,2,IF(AND($K154&lt;=Y$4,Y$4&lt;=$L154),1,0)))</f>
         <v>3</v>
       </c>
       <c r="Z154" s="26">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3</v>
       </c>
       <c r="AA154" s="26">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3</v>
       </c>
       <c r="AB154" s="26">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3</v>
       </c>
       <c r="AC154" s="26">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3</v>
       </c>
       <c r="AD154" s="26">
@@ -25032,53 +24916,53 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N155" s="26">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3</v>
       </c>
       <c r="O155" s="26">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3</v>
       </c>
       <c r="P155" s="26">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3</v>
       </c>
       <c r="Q155" s="26">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3</v>
       </c>
       <c r="R155" s="26">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3</v>
       </c>
       <c r="S155" s="26">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3</v>
       </c>
       <c r="T155" s="26">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3</v>
       </c>
       <c r="U155" s="26">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3</v>
       </c>
       <c r="V155" s="26">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3</v>
       </c>
       <c r="W155" s="26">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3</v>
       </c>
       <c r="X155" s="26">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3</v>
       </c>
       <c r="Y155" s="26">
-        <f t="shared" ref="N155:AC171" si="27">IF(Y$4&gt;=$L155+2,3,IF($L155+1=Y$4,2,IF(AND($K155&lt;=Y$4,Y$4&lt;=$L155),1,0)))</f>
+        <f t="shared" si="27"/>
         <v>3</v>
       </c>
       <c r="Z155" s="26">
@@ -25158,7 +25042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N156" s="26">
         <f t="shared" si="27"/>
         <v>3</v>
@@ -25284,7 +25168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N157" s="26">
         <f t="shared" si="27"/>
         <v>3</v>
@@ -25410,7 +25294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N158" s="26">
         <f t="shared" si="27"/>
         <v>3</v>
@@ -25536,7 +25420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N159" s="26">
         <f t="shared" si="27"/>
         <v>3</v>
@@ -25658,11 +25542,11 @@
         <v>3</v>
       </c>
       <c r="AR159" s="26">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="AD159:AR176" si="28">IF(AR$4&gt;=$L159+2,3,IF($L159+1=AR$4,2,IF(AND($K159&lt;=AR$4,AR$4&lt;=$L159),1,0)))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N160" s="26">
         <f t="shared" si="27"/>
         <v>3</v>
@@ -25728,67 +25612,67 @@
         <v>3</v>
       </c>
       <c r="AD160" s="26">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="AE160" s="26">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="AF160" s="26">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="AG160" s="26">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="AH160" s="26">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="AI160" s="26">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="AJ160" s="26">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="AK160" s="26">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="AL160" s="26">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="AM160" s="26">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="AN160" s="26">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="AO160" s="26">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="AP160" s="26">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="AQ160" s="26">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="AR160" s="26">
-        <f t="shared" ref="AD160:AR177" si="28">IF(AR$4&gt;=$L160+2,3,IF($L160+1=AR$4,2,IF(AND($K160&lt;=AR$4,AR$4&lt;=$L160),1,0)))</f>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N161" s="26">
         <f t="shared" si="27"/>
         <v>3</v>
@@ -25914,7 +25798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N162" s="26">
         <f t="shared" si="27"/>
         <v>3</v>
@@ -26040,7 +25924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N163" s="26">
         <f t="shared" si="27"/>
         <v>3</v>
@@ -26166,7 +26050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N164" s="26">
         <f t="shared" si="27"/>
         <v>3</v>
@@ -26292,7 +26176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N165" s="26">
         <f t="shared" si="27"/>
         <v>3</v>
@@ -26418,7 +26302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N166" s="26">
         <f t="shared" si="27"/>
         <v>3</v>
@@ -26544,7 +26428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N167" s="26">
         <f t="shared" si="27"/>
         <v>3</v>
@@ -26670,7 +26554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N168" s="26">
         <f t="shared" si="27"/>
         <v>3</v>
@@ -26796,7 +26680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N169" s="26">
         <f t="shared" si="27"/>
         <v>3</v>
@@ -26922,7 +26806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N170" s="26">
         <f t="shared" si="27"/>
         <v>3</v>
@@ -26964,27 +26848,27 @@
         <v>3</v>
       </c>
       <c r="X170" s="26">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="N170:AC186" si="29">IF(X$4&gt;=$L170+2,3,IF($L170+1=X$4,2,IF(AND($K170&lt;=X$4,X$4&lt;=$L170),1,0)))</f>
         <v>3</v>
       </c>
       <c r="Y170" s="26">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="Z170" s="26">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="AA170" s="26">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="AB170" s="26">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="AC170" s="26">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="AD170" s="26">
@@ -27048,49 +26932,49 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N171" s="26">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="O171" s="26">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="P171" s="26">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="Q171" s="26">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="R171" s="26">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="S171" s="26">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="T171" s="26">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="U171" s="26">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="V171" s="26">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="W171" s="26">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="X171" s="26">
-        <f t="shared" ref="N171:AC187" si="29">IF(X$4&gt;=$L171+2,3,IF($L171+1=X$4,2,IF(AND($K171&lt;=X$4,X$4&lt;=$L171),1,0)))</f>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="Y171" s="26">
@@ -27174,7 +27058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N172" s="26">
         <f t="shared" si="29"/>
         <v>3</v>
@@ -27300,7 +27184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N173" s="26">
         <f t="shared" si="29"/>
         <v>3</v>
@@ -27426,7 +27310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N174" s="26">
         <f t="shared" si="29"/>
         <v>3</v>
@@ -27552,7 +27436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N175" s="26">
         <f t="shared" si="29"/>
         <v>3</v>
@@ -27678,7 +27562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N176" s="26">
         <f t="shared" si="29"/>
         <v>3</v>
@@ -27800,11 +27684,11 @@
         <v>3</v>
       </c>
       <c r="AR176" s="26">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="AD176:AR193" si="30">IF(AR$4&gt;=$L176+2,3,IF($L176+1=AR$4,2,IF(AND($K176&lt;=AR$4,AR$4&lt;=$L176),1,0)))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N177" s="26">
         <f t="shared" si="29"/>
         <v>3</v>
@@ -27870,67 +27754,67 @@
         <v>3</v>
       </c>
       <c r="AD177" s="26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="AE177" s="26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="AF177" s="26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="AG177" s="26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="AH177" s="26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="AI177" s="26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="AJ177" s="26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="AK177" s="26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="AL177" s="26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="AM177" s="26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="AN177" s="26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="AO177" s="26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="AP177" s="26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="AQ177" s="26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="AR177" s="26">
-        <f t="shared" ref="AD177:AR194" si="30">IF(AR$4&gt;=$L177+2,3,IF($L177+1=AR$4,2,IF(AND($K177&lt;=AR$4,AR$4&lt;=$L177),1,0)))</f>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N178" s="26">
         <f t="shared" si="29"/>
         <v>3</v>
@@ -28056,7 +27940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N179" s="26">
         <f t="shared" si="29"/>
         <v>3</v>
@@ -28182,7 +28066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N180" s="26">
         <f t="shared" si="29"/>
         <v>3</v>
@@ -28308,7 +28192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N181" s="26">
         <f t="shared" si="29"/>
         <v>3</v>
@@ -28434,7 +28318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N182" s="26">
         <f t="shared" si="29"/>
         <v>3</v>
@@ -28560,7 +28444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N183" s="26">
         <f t="shared" si="29"/>
         <v>3</v>
@@ -28686,7 +28570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N184" s="26">
         <f t="shared" si="29"/>
         <v>3</v>
@@ -28812,7 +28696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N185" s="26">
         <f t="shared" si="29"/>
         <v>3</v>
@@ -28938,7 +28822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N186" s="26">
         <f t="shared" si="29"/>
         <v>3</v>
@@ -28976,31 +28860,31 @@
         <v>3</v>
       </c>
       <c r="W186" s="26">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="N186:AC202" si="31">IF(W$4&gt;=$L186+2,3,IF($L186+1=W$4,2,IF(AND($K186&lt;=W$4,W$4&lt;=$L186),1,0)))</f>
         <v>3</v>
       </c>
       <c r="X186" s="26">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="Y186" s="26">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="Z186" s="26">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="AA186" s="26">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="AB186" s="26">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="AC186" s="26">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="AD186" s="26">
@@ -29064,45 +28948,45 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N187" s="26">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="O187" s="26">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="P187" s="26">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="Q187" s="26">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="R187" s="26">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="S187" s="26">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="T187" s="26">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="U187" s="26">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="V187" s="26">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="W187" s="26">
-        <f t="shared" ref="N187:AC203" si="31">IF(W$4&gt;=$L187+2,3,IF($L187+1=W$4,2,IF(AND($K187&lt;=W$4,W$4&lt;=$L187),1,0)))</f>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="X187" s="26">
@@ -29190,7 +29074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N188" s="26">
         <f t="shared" si="31"/>
         <v>3</v>
@@ -29316,7 +29200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N189" s="26">
         <f t="shared" si="31"/>
         <v>3</v>
@@ -29442,7 +29326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N190" s="26">
         <f t="shared" si="31"/>
         <v>3</v>
@@ -29568,7 +29452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N191" s="26">
         <f t="shared" si="31"/>
         <v>3</v>
@@ -29694,7 +29578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N192" s="26">
         <f t="shared" si="31"/>
         <v>3</v>
@@ -29820,7 +29704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N193" s="26">
         <f t="shared" si="31"/>
         <v>3</v>
@@ -29942,11 +29826,11 @@
         <v>3</v>
       </c>
       <c r="AR193" s="26">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="AD193:AR208" si="32">IF(AR$4&gt;=$L193+2,3,IF($L193+1=AR$4,2,IF(AND($K193&lt;=AR$4,AR$4&lt;=$L193),1,0)))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N194" s="26">
         <f t="shared" si="31"/>
         <v>3</v>
@@ -30012,67 +29896,67 @@
         <v>3</v>
       </c>
       <c r="AD194" s="26">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="AE194" s="26">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="AF194" s="26">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="AG194" s="26">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="AH194" s="26">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="AI194" s="26">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="AJ194" s="26">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="AK194" s="26">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="AL194" s="26">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="AM194" s="26">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="AN194" s="26">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="AO194" s="26">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="AP194" s="26">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="AQ194" s="26">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="AR194" s="26">
-        <f t="shared" ref="AD194:AR209" si="32">IF(AR$4&gt;=$L194+2,3,IF($L194+1=AR$4,2,IF(AND($K194&lt;=AR$4,AR$4&lt;=$L194),1,0)))</f>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N195" s="26">
         <f t="shared" si="31"/>
         <v>3</v>
@@ -30198,7 +30082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N196" s="26">
         <f t="shared" si="31"/>
         <v>3</v>
@@ -30324,7 +30208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N197" s="26">
         <f t="shared" si="31"/>
         <v>3</v>
@@ -30450,7 +30334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N198" s="26">
         <f t="shared" si="31"/>
         <v>3</v>
@@ -30576,7 +30460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N199" s="26">
         <f t="shared" si="31"/>
         <v>3</v>
@@ -30702,7 +30586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N200" s="26">
         <f t="shared" si="31"/>
         <v>3</v>
@@ -30828,7 +30712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N201" s="26">
         <f t="shared" si="31"/>
         <v>3</v>
@@ -30954,7 +30838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N202" s="26">
         <f t="shared" si="31"/>
         <v>3</v>
@@ -30988,35 +30872,35 @@
         <v>3</v>
       </c>
       <c r="V202" s="26">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="N202:AC209" si="33">IF(V$4&gt;=$L202+2,3,IF($L202+1=V$4,2,IF(AND($K202&lt;=V$4,V$4&lt;=$L202),1,0)))</f>
         <v>3</v>
       </c>
       <c r="W202" s="26">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>3</v>
       </c>
       <c r="X202" s="26">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>3</v>
       </c>
       <c r="Y202" s="26">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>3</v>
       </c>
       <c r="Z202" s="26">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>3</v>
       </c>
       <c r="AA202" s="26">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>3</v>
       </c>
       <c r="AB202" s="26">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>3</v>
       </c>
       <c r="AC202" s="26">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>3</v>
       </c>
       <c r="AD202" s="26">
@@ -31080,41 +30964,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N203" s="26">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>3</v>
       </c>
       <c r="O203" s="26">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>3</v>
       </c>
       <c r="P203" s="26">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>3</v>
       </c>
       <c r="Q203" s="26">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>3</v>
       </c>
       <c r="R203" s="26">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>3</v>
       </c>
       <c r="S203" s="26">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>3</v>
       </c>
       <c r="T203" s="26">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>3</v>
       </c>
       <c r="U203" s="26">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>3</v>
       </c>
       <c r="V203" s="26">
-        <f t="shared" ref="N203:AC210" si="33">IF(V$4&gt;=$L203+2,3,IF($L203+1=V$4,2,IF(AND($K203&lt;=V$4,V$4&lt;=$L203),1,0)))</f>
+        <f t="shared" si="33"/>
         <v>3</v>
       </c>
       <c r="W203" s="26">
@@ -31206,7 +31090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N204" s="26">
         <f t="shared" si="33"/>
         <v>3</v>
@@ -31332,7 +31216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N205" s="26">
         <f t="shared" si="33"/>
         <v>3</v>
@@ -31458,7 +31342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N206" s="26">
         <f t="shared" si="33"/>
         <v>3</v>
@@ -31584,7 +31468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N207" s="26">
         <f t="shared" si="33"/>
         <v>3</v>
@@ -31710,7 +31594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N208" s="26">
         <f t="shared" si="33"/>
         <v>3</v>
@@ -31836,7 +31720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="14:44" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="14:44" x14ac:dyDescent="0.4">
       <c r="N209" s="26">
         <f t="shared" si="33"/>
         <v>3</v>
@@ -31902,188 +31786,62 @@
         <v>3</v>
       </c>
       <c r="AD209" s="26">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="AD209:AR209" si="34">IF(AD$4&gt;=$L209+2,3,IF($L209+1=AD$4,2,IF(AND($K209&lt;=AD$4,AD$4&lt;=$L209),1,0)))</f>
         <v>3</v>
       </c>
       <c r="AE209" s="26">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>3</v>
       </c>
       <c r="AF209" s="26">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>3</v>
       </c>
       <c r="AG209" s="26">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>3</v>
       </c>
       <c r="AH209" s="26">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>3</v>
       </c>
       <c r="AI209" s="26">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>3</v>
       </c>
       <c r="AJ209" s="26">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>3</v>
       </c>
       <c r="AK209" s="26">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>3</v>
       </c>
       <c r="AL209" s="26">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>3</v>
       </c>
       <c r="AM209" s="26">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>3</v>
       </c>
       <c r="AN209" s="26">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>3</v>
       </c>
       <c r="AO209" s="26">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>3</v>
       </c>
       <c r="AP209" s="26">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>3</v>
       </c>
       <c r="AQ209" s="26">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>3</v>
       </c>
       <c r="AR209" s="26">
-        <f t="shared" si="32"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="210" spans="14:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="N210" s="26">
-        <f t="shared" si="33"/>
-        <v>3</v>
-      </c>
-      <c r="O210" s="26">
-        <f t="shared" si="33"/>
-        <v>3</v>
-      </c>
-      <c r="P210" s="26">
-        <f t="shared" si="33"/>
-        <v>3</v>
-      </c>
-      <c r="Q210" s="26">
-        <f t="shared" si="33"/>
-        <v>3</v>
-      </c>
-      <c r="R210" s="26">
-        <f t="shared" si="33"/>
-        <v>3</v>
-      </c>
-      <c r="S210" s="26">
-        <f t="shared" si="33"/>
-        <v>3</v>
-      </c>
-      <c r="T210" s="26">
-        <f t="shared" si="33"/>
-        <v>3</v>
-      </c>
-      <c r="U210" s="26">
-        <f t="shared" si="33"/>
-        <v>3</v>
-      </c>
-      <c r="V210" s="26">
-        <f t="shared" si="33"/>
-        <v>3</v>
-      </c>
-      <c r="W210" s="26">
-        <f t="shared" si="33"/>
-        <v>3</v>
-      </c>
-      <c r="X210" s="26">
-        <f t="shared" si="33"/>
-        <v>3</v>
-      </c>
-      <c r="Y210" s="26">
-        <f t="shared" si="33"/>
-        <v>3</v>
-      </c>
-      <c r="Z210" s="26">
-        <f t="shared" si="33"/>
-        <v>3</v>
-      </c>
-      <c r="AA210" s="26">
-        <f t="shared" si="33"/>
-        <v>3</v>
-      </c>
-      <c r="AB210" s="26">
-        <f t="shared" si="33"/>
-        <v>3</v>
-      </c>
-      <c r="AC210" s="26">
-        <f t="shared" si="33"/>
-        <v>3</v>
-      </c>
-      <c r="AD210" s="26">
-        <f t="shared" ref="AD210:AR210" si="34">IF(AD$4&gt;=$L210+2,3,IF($L210+1=AD$4,2,IF(AND($K210&lt;=AD$4,AD$4&lt;=$L210),1,0)))</f>
-        <v>3</v>
-      </c>
-      <c r="AE210" s="26">
-        <f t="shared" si="34"/>
-        <v>3</v>
-      </c>
-      <c r="AF210" s="26">
-        <f t="shared" si="34"/>
-        <v>3</v>
-      </c>
-      <c r="AG210" s="26">
-        <f t="shared" si="34"/>
-        <v>3</v>
-      </c>
-      <c r="AH210" s="26">
-        <f t="shared" si="34"/>
-        <v>3</v>
-      </c>
-      <c r="AI210" s="26">
-        <f t="shared" si="34"/>
-        <v>3</v>
-      </c>
-      <c r="AJ210" s="26">
-        <f t="shared" si="34"/>
-        <v>3</v>
-      </c>
-      <c r="AK210" s="26">
-        <f t="shared" si="34"/>
-        <v>3</v>
-      </c>
-      <c r="AL210" s="26">
-        <f t="shared" si="34"/>
-        <v>3</v>
-      </c>
-      <c r="AM210" s="26">
-        <f t="shared" si="34"/>
-        <v>3</v>
-      </c>
-      <c r="AN210" s="26">
-        <f t="shared" si="34"/>
-        <v>3</v>
-      </c>
-      <c r="AO210" s="26">
-        <f t="shared" si="34"/>
-        <v>3</v>
-      </c>
-      <c r="AP210" s="26">
-        <f t="shared" si="34"/>
-        <v>3</v>
-      </c>
-      <c r="AQ210" s="26">
-        <f t="shared" si="34"/>
-        <v>3</v>
-      </c>
-      <c r="AR210" s="26">
         <f t="shared" si="34"/>
         <v>3</v>
       </c>
@@ -32095,7 +31853,7 @@
       <formula>N$4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5:AR210">
+  <conditionalFormatting sqref="N5:AR209">
     <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32103,32 +31861,32 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5:AR210">
+  <conditionalFormatting sqref="N5:AR209">
     <cfRule type="expression" dxfId="5" priority="3">
       <formula>$J5="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5:AR210">
+  <conditionalFormatting sqref="N5:AR209">
     <cfRule type="expression" dxfId="4" priority="4">
       <formula>AND(N5=2,N$4=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5:AR210">
+  <conditionalFormatting sqref="N5:AR209">
     <cfRule type="expression" dxfId="3" priority="5">
       <formula>AND(N5=3,N$4&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N9 N78 N139 N200 N31 N66 N88 N132 N154 N176 N198 N62 N74 N86 N98 N110 N122 N134 N146 N158 N170 N182 N194 N206">
+  <conditionalFormatting sqref="N9 N77 N138 N199 N31 N65 N87 N131 N153 N175 N197 N61 N73 N85 N97 N109 N121 N133 N145 N157 N169 N181 N193 N205">
     <cfRule type="expression" dxfId="2" priority="2">
       <formula>$L5=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5:AR210">
+  <conditionalFormatting sqref="N5:AR209">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>$L5=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N50">
+  <conditionalFormatting sqref="N49">
     <cfRule type="expression" dxfId="0" priority="16">
       <formula>$L39=""</formula>
     </cfRule>
@@ -32146,13 +31904,13 @@
           <x14:formula1>
             <xm:f>選択項目!$E$3:$E$6</xm:f>
           </x14:formula1>
-          <xm:sqref>J5:J210</xm:sqref>
+          <xm:sqref>J5:J209</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{038D3DFB-3963-4B04-9485-479FF05CD373}">
           <x14:formula1>
             <xm:f>選択項目!$C$3:$C$8</xm:f>
           </x14:formula1>
-          <xm:sqref>H5:H210</xm:sqref>
+          <xm:sqref>H5:H209</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -32170,62 +31928,62 @@
   <dimension ref="B2:B11"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="58.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" s="29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B3" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B4" s="28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B5" s="29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B6" s="29" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="28" t="s">
-        <v>78</v>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B7" s="29" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="28" t="s">
-        <v>79</v>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B8" s="30" t="s">
+        <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="29" t="s">
-        <v>97</v>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B9" s="30" t="s">
+        <v>92</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="31" t="s">
-        <v>95</v>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B10" s="29" t="s">
+        <v>91</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="30" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="29" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="31" t="s">
-        <v>106</v>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B11" s="36" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -32242,9 +32000,9 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -32267,7 +32025,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>12</v>
       </c>
@@ -32276,11 +32034,11 @@
       </c>
       <c r="I4">
         <f>COUNTIF(テーブル1[ステータス],"完了")</f>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J4">
         <f>COUNTIF(テーブル1[ステータス],"着手中")</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="K4">
         <f>COUNTIF(テーブル1[ステータス],"遅延")</f>
@@ -32292,10 +32050,10 @@
       </c>
       <c r="M4">
         <f>COUNTA(テーブル1[タスク])-I6</f>
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
         <v>10</v>
       </c>
@@ -32303,7 +32061,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="3:13" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
         <v>8</v>
       </c>
@@ -32312,15 +32070,15 @@
       </c>
       <c r="I6">
         <f>I4+J4+K4+L4</f>
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
         <v>59</v>
       </c>

--- a/doc/PJ管理.xlsx
+++ b/doc/PJ管理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE576045-0023-4FDA-B42B-51FECEBC610F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D947FD-6E6B-4C3D-BE21-45A6B7038F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="3" xr2:uid="{18759526-B486-4F50-90B4-3DA4ED19388F}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="99">
   <si>
     <t>服装管理アプリ作成プロジェクト</t>
     <rPh sb="0" eb="2">
@@ -723,13 +723,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ボタンのCSSがまだ途中</t>
-    <rPh sb="10" eb="12">
-      <t>トチュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>dao,model２セット終わってない</t>
     <rPh sb="13" eb="14">
       <t>オ</t>
@@ -857,26 +850,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>コーディネート登録の画像を揃えた</t>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ソロ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ボタンの横並びなど７０％</t>
-    <rPh sb="4" eb="6">
-      <t>ヨコナラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>服削除</t>
     <rPh sb="0" eb="1">
       <t>フク</t>
@@ -913,15 +886,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>全体進捗：　70%</t>
+    <t>履歴検索画面：100%</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>履歴検索画面：80%</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>編集画面：50%</t>
+    <t>編集画面：70%</t>
     <rPh sb="0" eb="2">
       <t>ヘンシュウ</t>
     </rPh>
@@ -931,13 +900,17 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>削除画面80%</t>
+    <t>削除画面100%</t>
     <rPh sb="0" eb="2">
       <t>サクジョ</t>
     </rPh>
     <rPh sb="2" eb="4">
       <t>ガメン</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全体進捗：　80%</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1453,7 +1426,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>41</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1524,7 +1497,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1620,7 +1593,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1671,7 +1644,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1996,19 +1969,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>41</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4389,10 +4362,10 @@
   <dimension ref="B1:AR209"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="12" ySplit="4" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="4" topLeftCell="M53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J20" sqref="J20"/>
+      <selection pane="bottomRight" activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4567,7 +4540,7 @@
         <v>30</v>
       </c>
       <c r="I4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J4" t="s">
         <v>29</v>
@@ -7740,7 +7713,7 @@
         <v>12</v>
       </c>
       <c r="I26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J26" t="s">
         <v>34</v>
@@ -9321,7 +9294,7 @@
         <v>33</v>
       </c>
       <c r="G37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H37" t="s">
         <v>12</v>
@@ -9465,7 +9438,7 @@
         <v>33</v>
       </c>
       <c r="G38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s">
         <v>6</v>
@@ -9610,7 +9583,7 @@
         <v>33</v>
       </c>
       <c r="G39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s">
         <v>10</v>
@@ -9755,7 +9728,7 @@
         <v>33</v>
       </c>
       <c r="G40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s">
         <v>4</v>
@@ -9899,7 +9872,7 @@
         <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H41" t="s">
         <v>12</v>
@@ -10043,7 +10016,7 @@
         <v>33</v>
       </c>
       <c r="G42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H42" t="s">
         <v>6</v>
@@ -10188,7 +10161,7 @@
         <v>33</v>
       </c>
       <c r="G43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H43" t="s">
         <v>10</v>
@@ -10332,7 +10305,7 @@
         <v>33</v>
       </c>
       <c r="G44" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H44" t="s">
         <v>4</v>
@@ -10341,7 +10314,7 @@
         <v>0.8</v>
       </c>
       <c r="J44" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K44" s="23">
         <v>45097</v>
@@ -10479,16 +10452,14 @@
         <v>33</v>
       </c>
       <c r="G45" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H45" t="s">
         <v>4</v>
       </c>
-      <c r="I45" s="35">
-        <v>0.5</v>
-      </c>
+      <c r="I45" s="35"/>
       <c r="J45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K45" s="23">
         <v>45097</v>
@@ -10626,7 +10597,7 @@
         <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H46" t="s">
         <v>4</v>
@@ -10770,16 +10741,14 @@
         <v>33</v>
       </c>
       <c r="G47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H47" t="s">
         <v>8</v>
       </c>
-      <c r="I47" s="35">
-        <v>0.8</v>
-      </c>
+      <c r="I47" s="35"/>
       <c r="J47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K47" s="23">
         <v>45097</v>
@@ -10917,7 +10886,7 @@
         <v>33</v>
       </c>
       <c r="G48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H48" t="s">
         <v>12</v>
@@ -11067,7 +11036,7 @@
         <v>6</v>
       </c>
       <c r="J49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K49" s="23">
         <v>45096</v>
@@ -11210,11 +11179,8 @@
       <c r="H50" t="s">
         <v>10</v>
       </c>
-      <c r="I50" t="s">
-        <v>74</v>
-      </c>
       <c r="J50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K50" s="23">
         <v>45096</v>
@@ -11358,7 +11324,7 @@
         <v>8</v>
       </c>
       <c r="J51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K51" s="23">
         <v>45096</v>
@@ -11502,10 +11468,10 @@
         <v>4</v>
       </c>
       <c r="I52" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J52" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K52" s="23">
         <v>45096</v>
@@ -11649,7 +11615,7 @@
         <v>12</v>
       </c>
       <c r="J53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K53" s="23">
         <v>45096</v>
@@ -11792,9 +11758,6 @@
       <c r="H54" t="s">
         <v>6</v>
       </c>
-      <c r="I54" t="s">
-        <v>94</v>
-      </c>
       <c r="J54" t="s">
         <v>35</v>
       </c>
@@ -11939,9 +11902,6 @@
       <c r="H55" t="s">
         <v>10</v>
       </c>
-      <c r="I55" t="s">
-        <v>93</v>
-      </c>
       <c r="J55" t="s">
         <v>35</v>
       </c>
@@ -12086,9 +12046,7 @@
       <c r="H56" t="s">
         <v>8</v>
       </c>
-      <c r="I56" s="35">
-        <v>0.7</v>
-      </c>
+      <c r="I56" s="35"/>
       <c r="J56" t="s">
         <v>35</v>
       </c>
@@ -13069,6 +13027,9 @@
       </c>
       <c r="I63" t="s">
         <v>64</v>
+      </c>
+      <c r="J63" t="s">
+        <v>35</v>
       </c>
       <c r="K63" s="23">
         <v>45103</v>
@@ -31928,7 +31889,7 @@
   <dimension ref="B2:B11"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -31943,47 +31904,47 @@
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B3" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B4" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B5" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B6" s="29" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B7" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B8" s="30" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B9" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B10" s="29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B11" s="36" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -32034,11 +31995,11 @@
       </c>
       <c r="I4">
         <f>COUNTIF(テーブル1[ステータス],"完了")</f>
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J4">
         <f>COUNTIF(テーブル1[ステータス],"着手中")</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K4">
         <f>COUNTIF(テーブル1[ステータス],"遅延")</f>
@@ -32046,11 +32007,11 @@
       </c>
       <c r="L4">
         <f>COUNTIF(テーブル1[ステータス],"大幅遅延（ヘルプ）")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M4">
         <f>COUNTA(テーブル1[タスク])-I6</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="3:13" x14ac:dyDescent="0.4">
@@ -32070,7 +32031,7 @@
       </c>
       <c r="I6">
         <f>I4+J4+K4+L4</f>
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="3:13" x14ac:dyDescent="0.4">
